--- a/teaching/traditional_assets/database/data/china/china_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/china/china_banks_regional.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ35"/>
+  <dimension ref="A1:AQ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0462</v>
+        <v>0.0279</v>
       </c>
       <c r="E2">
-        <v>0.094</v>
-      </c>
-      <c r="F2">
-        <v>-0.0416</v>
+        <v>0.073</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +603,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.004645089072851109</v>
+        <v>0.001561269238189648</v>
       </c>
       <c r="J2">
-        <v>0.003973652240726966</v>
+        <v>0.001365975746255384</v>
       </c>
       <c r="K2">
-        <v>18646.3</v>
+        <v>19875.3</v>
       </c>
       <c r="L2">
-        <v>0.4580511399507221</v>
+        <v>0.4581462357659859</v>
       </c>
       <c r="M2">
-        <v>5299.5148</v>
+        <v>17792.3129</v>
       </c>
       <c r="N2">
-        <v>0.03460814959403536</v>
+        <v>0.1059625070126269</v>
       </c>
       <c r="O2">
-        <v>0.2842126749006506</v>
+        <v>0.8951971995391266</v>
       </c>
       <c r="P2">
-        <v>5297.8968</v>
+        <v>17792.3129</v>
       </c>
       <c r="Q2">
-        <v>0.03459758334633978</v>
+        <v>0.1059625070126269</v>
       </c>
       <c r="R2">
-        <v>0.2841259016534111</v>
+        <v>0.8951971995391266</v>
       </c>
       <c r="S2">
-        <v>1.617999999999995</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0003053109692230683</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>102822.6</v>
+        <v>111735.9</v>
       </c>
       <c r="V2">
-        <v>0.6714765514849889</v>
+        <v>0.6654455861841423</v>
       </c>
       <c r="W2">
-        <v>0.1273068612518154</v>
+        <v>0.1156337658390906</v>
       </c>
       <c r="X2">
-        <v>0.1265427752164131</v>
+        <v>0.1134191010064485</v>
       </c>
       <c r="Y2">
-        <v>0.0007640860354022616</v>
+        <v>0.002214664832642071</v>
       </c>
       <c r="Z2">
-        <v>0.06094729277741516</v>
+        <v>0.06066955698219816</v>
       </c>
       <c r="AA2">
-        <v>0.0002594764612320843</v>
+        <v>7.161172746577568e-05</v>
       </c>
       <c r="AB2">
-        <v>0.04995443289662733</v>
+        <v>0.04068488240303691</v>
       </c>
       <c r="AC2">
-        <v>-0.04859325966545969</v>
+        <v>-0.04058947641239344</v>
       </c>
       <c r="AD2">
-        <v>648983.1</v>
+        <v>680327.2</v>
       </c>
       <c r="AE2">
-        <v>3007.340892656422</v>
+        <v>1790.645089544284</v>
       </c>
       <c r="AF2">
-        <v>651990.4408926565</v>
+        <v>682117.8450895443</v>
       </c>
       <c r="AG2">
-        <v>549167.8408926565</v>
+        <v>570381.9450895443</v>
       </c>
       <c r="AH2">
-        <v>0.809805758992979</v>
+        <v>0.802463972892707</v>
       </c>
       <c r="AI2">
-        <v>0.7691765306619684</v>
+        <v>0.7547778603872852</v>
       </c>
       <c r="AJ2">
-        <v>0.7819596084166837</v>
+        <v>0.772568178872539</v>
       </c>
       <c r="AK2">
-        <v>0.7373114918745725</v>
+        <v>0.7201816377617479</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>820.9156800242866</v>
+        <v>1597.537218804302</v>
       </c>
       <c r="AP2">
-        <v>694.6567507749652</v>
+        <v>1339.364920606641</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bank of Xi'an Co.,Ltd. (SHSE:600928)</t>
+          <t>Weihai City Commercial Bank Co., Ltd. (SEHK:9677)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -728,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.008453397029637447</v>
+        <v>-0.02192913474177177</v>
       </c>
       <c r="J3">
-        <v>0.007155630403001324</v>
+        <v>-0.01816651588554592</v>
       </c>
       <c r="K3">
-        <v>359.4</v>
+        <v>218.3</v>
       </c>
       <c r="L3">
-        <v>0.5222319093286835</v>
+        <v>0.4477948717948718</v>
       </c>
       <c r="M3">
-        <v>119.5</v>
+        <v>369.7</v>
       </c>
       <c r="N3">
-        <v>0.02409468505524639</v>
+        <v>0.1430838300178032</v>
       </c>
       <c r="O3">
-        <v>0.3324986087924319</v>
+        <v>1.693540998625744</v>
       </c>
       <c r="P3">
-        <v>119.5</v>
+        <v>369.7</v>
       </c>
       <c r="Q3">
-        <v>0.02409468505524639</v>
+        <v>0.1430838300178032</v>
       </c>
       <c r="R3">
-        <v>0.3324986087924319</v>
+        <v>1.693540998625744</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -764,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1284.1</v>
+        <v>3058.8</v>
       </c>
       <c r="V3">
-        <v>0.2589120090329865</v>
+        <v>1.183837758340429</v>
       </c>
       <c r="W3">
-        <v>0.1273068612518154</v>
+        <v>0.2874637872004214</v>
       </c>
       <c r="X3">
-        <v>0.08729077213655623</v>
+        <v>0.1139356023544782</v>
       </c>
       <c r="Y3">
-        <v>0.04001608911525914</v>
+        <v>0.1735281848459432</v>
       </c>
       <c r="Z3">
-        <v>20.78409315984964</v>
+        <v>-2.079798262302297</v>
       </c>
       <c r="AA3">
-        <v>0.1487232889134319</v>
+        <v>0.03778268817084549</v>
       </c>
       <c r="AB3">
-        <v>0.0511609044968504</v>
+        <v>0.04671503860226994</v>
       </c>
       <c r="AC3">
-        <v>0.09756238441658152</v>
+        <v>-0.00893235043142445</v>
       </c>
       <c r="AD3">
-        <v>9755.1</v>
+        <v>8817.9</v>
       </c>
       <c r="AE3">
-        <v>64.41186082101754</v>
+        <v>58.9022659330687</v>
       </c>
       <c r="AF3">
-        <v>9819.511860821018</v>
+        <v>8876.802265933069</v>
       </c>
       <c r="AG3">
-        <v>8535.411860821017</v>
+        <v>5818.002265933069</v>
       </c>
       <c r="AH3">
-        <v>0.6644182650009064</v>
+        <v>0.7745493700902254</v>
       </c>
       <c r="AI3">
-        <v>0.7515941910230343</v>
+        <v>0.7746642793458064</v>
       </c>
       <c r="AJ3">
-        <v>0.6324864289746341</v>
+        <v>0.6924707439882776</v>
       </c>
       <c r="AK3">
-        <v>0.7245181369211829</v>
+        <v>0.6926108851707909</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -821,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>521.6631016042782</v>
+        <v>8089.816513761467</v>
       </c>
       <c r="AP3">
-        <v>456.4391369423004</v>
+        <v>5337.61675773676</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bank of Guizhou Co., Ltd. (SEHK:6199)</t>
+          <t>Wuxi Rural Commercial Bank Co.,Ltd (SHSE:600908)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -850,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01225421554278569</v>
+        <v>0.008441524781501026</v>
       </c>
       <c r="J4">
-        <v>0.01066867529706285</v>
+        <v>0.007419963814871341</v>
       </c>
       <c r="K4">
-        <v>419.1</v>
+        <v>190.2</v>
       </c>
       <c r="L4">
-        <v>0.4541612483745124</v>
+        <v>0.5086921636801284</v>
       </c>
       <c r="M4">
-        <v>325.4</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="N4">
-        <v>0.07456803703194463</v>
+        <v>0.04188694591297275</v>
       </c>
       <c r="O4">
-        <v>0.7764256740634693</v>
+        <v>0.379074658254469</v>
       </c>
       <c r="P4">
-        <v>325.4</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.07456803703194463</v>
+        <v>0.04188694591297275</v>
       </c>
       <c r="R4">
-        <v>0.7764256740634693</v>
+        <v>0.379074658254469</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -886,49 +883,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2969.6</v>
+        <v>316.1</v>
       </c>
       <c r="V4">
-        <v>0.6805078142902974</v>
+        <v>0.1836402718875269</v>
+      </c>
+      <c r="W4">
+        <v>0.1201288448177856</v>
       </c>
       <c r="X4">
-        <v>0.1039583703372218</v>
+        <v>0.07092925212366458</v>
+      </c>
+      <c r="Y4">
+        <v>0.04919959269412105</v>
       </c>
       <c r="Z4">
-        <v>13.00468378155824</v>
+        <v>0.1408780482568959</v>
       </c>
       <c r="AA4">
-        <v>0.1387427486064243</v>
+        <v>0.001045310020375866</v>
       </c>
       <c r="AB4">
-        <v>0.05165356990819449</v>
+        <v>0.04001542915976478</v>
       </c>
       <c r="AC4">
-        <v>0.08708917869822981</v>
+        <v>-0.03897011913938891</v>
       </c>
       <c r="AD4">
-        <v>12108.1</v>
+        <v>2527.4</v>
       </c>
       <c r="AE4">
-        <v>70.95904948558683</v>
+        <v>12.36856942098383</v>
       </c>
       <c r="AF4">
-        <v>12179.05904948559</v>
+        <v>2539.768569420984</v>
       </c>
       <c r="AG4">
-        <v>9209.459049485587</v>
+        <v>2223.668569420984</v>
       </c>
       <c r="AH4">
-        <v>0.736212465635697</v>
+        <v>0.5960402955369716</v>
       </c>
       <c r="AI4">
-        <v>0.7638666790152431</v>
+        <v>0.5869625648241871</v>
       </c>
       <c r="AJ4">
-        <v>0.6785002051393557</v>
+        <v>0.5636720623473457</v>
       </c>
       <c r="AK4">
-        <v>0.7098199621545642</v>
+        <v>0.5544107294799731</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -937,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>474.8274509803921</v>
+        <v>448.9165186500888</v>
       </c>
       <c r="AP4">
-        <v>361.155256842572</v>
+        <v>394.9677743198906</v>
       </c>
     </row>
     <row r="5">
@@ -951,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bank of Suzhou Co., Ltd. (SZSE:002966)</t>
+          <t>Jiangsu Changshu Rural Commercial Bank Co., Ltd. (SHSE:601128)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -966,34 +969,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.003986763125089784</v>
+        <v>0.001873437112295558</v>
       </c>
       <c r="J5">
-        <v>0.003187268997945548</v>
+        <v>0.001627787159329514</v>
       </c>
       <c r="K5">
-        <v>339.5</v>
+        <v>266.5</v>
       </c>
       <c r="L5">
-        <v>0.387601324352095</v>
+        <v>0.3614049362625441</v>
       </c>
       <c r="M5">
-        <v>284.9</v>
+        <v>112.7</v>
       </c>
       <c r="N5">
-        <v>0.05846021258259121</v>
+        <v>0.03637478617306265</v>
       </c>
       <c r="O5">
-        <v>0.8391752577319587</v>
+        <v>0.4228893058161351</v>
       </c>
       <c r="P5">
-        <v>284.9</v>
+        <v>112.7</v>
       </c>
       <c r="Q5">
-        <v>0.05846021258259121</v>
+        <v>0.03637478617306265</v>
       </c>
       <c r="R5">
-        <v>0.8391752577319587</v>
+        <v>0.4228893058161351</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1002,49 +1005,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1548</v>
+        <v>726.6</v>
       </c>
       <c r="V5">
-        <v>0.3176427135059712</v>
+        <v>0.2345157021592486</v>
+      </c>
+      <c r="W5">
+        <v>0.1176236924570773</v>
       </c>
       <c r="X5">
-        <v>0.09643912516020306</v>
+        <v>0.06338629466173631</v>
+      </c>
+      <c r="Y5">
+        <v>0.05423739779534098</v>
       </c>
       <c r="Z5">
-        <v>13.16351642833878</v>
+        <v>0.1466297632891507</v>
       </c>
       <c r="AA5">
-        <v>0.04195566781599111</v>
+        <v>0.0002386820458576058</v>
       </c>
       <c r="AB5">
-        <v>0.05146020038277292</v>
+        <v>0.03985580993593099</v>
       </c>
       <c r="AC5">
-        <v>-0.009504532566781812</v>
+        <v>-0.03961712789007339</v>
       </c>
       <c r="AD5">
-        <v>11751.7</v>
+        <v>3458.8</v>
       </c>
       <c r="AE5">
-        <v>66.53997089366929</v>
+        <v>47.59263736696628</v>
       </c>
       <c r="AF5">
-        <v>11818.23997089367</v>
+        <v>3506.392637366966</v>
       </c>
       <c r="AG5">
-        <v>10270.23997089367</v>
+        <v>2779.792637366967</v>
       </c>
       <c r="AH5">
-        <v>0.7080334821205062</v>
+        <v>0.5308941429808652</v>
       </c>
       <c r="AI5">
-        <v>0.7477229642492896</v>
+        <v>0.5611581609936113</v>
       </c>
       <c r="AJ5">
-        <v>0.67818833455056</v>
+        <v>0.4729072522089661</v>
       </c>
       <c r="AK5">
-        <v>0.7203323966561017</v>
+        <v>0.5034130179489454</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1053,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>699.5059523809524</v>
+        <v>317.3211009174312</v>
       </c>
       <c r="AP5">
-        <v>611.3238077912898</v>
+        <v>255.0268474648593</v>
       </c>
     </row>
     <row r="6">
@@ -1067,7 +1076,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wuxi Rural Commercial Bank Co.,Ltd (SHSE:600908)</t>
+          <t>Jiangsu Zhangjiagang Rural Commercial Bank Co., Ltd (SZSE:002839)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1082,91 +1091,91 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.008540746198187373</v>
+        <v>0.002469784067141959</v>
       </c>
       <c r="J6">
-        <v>0.007290988610758714</v>
+        <v>0.002469784067141959</v>
       </c>
       <c r="K6">
-        <v>166.9</v>
+        <v>145.7</v>
       </c>
       <c r="L6">
-        <v>0.4943720379146919</v>
+        <v>0.4620995876942594</v>
       </c>
       <c r="M6">
-        <v>126.708</v>
+        <v>47.5</v>
       </c>
       <c r="N6">
-        <v>0.08600868856910127</v>
+        <v>0.02811815544900255</v>
       </c>
       <c r="O6">
-        <v>0.7591851408028759</v>
+        <v>0.3260123541523679</v>
       </c>
       <c r="P6">
-        <v>126.7</v>
+        <v>47.5</v>
       </c>
       <c r="Q6">
-        <v>0.08600325821341298</v>
+        <v>0.02811815544900255</v>
       </c>
       <c r="R6">
-        <v>0.7591372079089275</v>
+        <v>0.3260123541523679</v>
       </c>
       <c r="S6">
-        <v>0.007999999999995566</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>6.313729204150935e-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1120</v>
+        <v>462.2</v>
       </c>
       <c r="V6">
-        <v>0.7602497963616617</v>
+        <v>0.2736044515479785</v>
       </c>
       <c r="W6">
-        <v>0.1086800807449372</v>
+        <v>0.1008863038360338</v>
       </c>
       <c r="X6">
-        <v>0.07720762919621972</v>
+        <v>0.07183134240529311</v>
       </c>
       <c r="Y6">
-        <v>0.03147245154871744</v>
+        <v>0.02905496143074067</v>
       </c>
       <c r="Z6">
-        <v>0.1439730546325019</v>
+        <v>0.1038706429723311</v>
       </c>
       <c r="AA6">
-        <v>0.001049705901581714</v>
+        <v>0.0002565380590568542</v>
       </c>
       <c r="AB6">
-        <v>0.04630969573598352</v>
+        <v>0.04003159904962961</v>
       </c>
       <c r="AC6">
-        <v>-0.04525998983440181</v>
+        <v>-0.03977506099057276</v>
       </c>
       <c r="AD6">
-        <v>2178.4</v>
+        <v>2546.9</v>
       </c>
       <c r="AE6">
-        <v>15.58322041745971</v>
+        <v>15.1063854181507</v>
       </c>
       <c r="AF6">
-        <v>2193.98322041746</v>
+        <v>2562.006385418151</v>
       </c>
       <c r="AG6">
-        <v>1073.98322041746</v>
+        <v>2099.806385418151</v>
       </c>
       <c r="AH6">
-        <v>0.5982747761830411</v>
+        <v>0.6026397895493378</v>
       </c>
       <c r="AI6">
-        <v>0.5790121756571448</v>
+        <v>0.6113397159870269</v>
       </c>
       <c r="AJ6">
-        <v>0.4216356372830707</v>
+        <v>0.5541692873810469</v>
       </c>
       <c r="AK6">
-        <v>0.4023639936749974</v>
+        <v>0.5631611836610274</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1175,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>363.0666666666667</v>
+        <v>670.2368421052632</v>
       </c>
       <c r="AP6">
-        <v>178.99720340291</v>
+        <v>552.5806277416187</v>
       </c>
     </row>
     <row r="7">
@@ -1189,7 +1198,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Harbin Bank Co., Ltd. (SEHK:6138)</t>
+          <t>Jiangsu Suzhou Rural Commercial Bank Co., Ltd (SHSE:603323)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1197,12 +1206,6 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D7">
-        <v>0.046</v>
-      </c>
-      <c r="E7">
-        <v>0.0638</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -1210,34 +1213,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.009802813269498495</v>
+        <v>0.002375425474313275</v>
       </c>
       <c r="J7">
-        <v>0.007654543653397644</v>
+        <v>0.002145545589702313</v>
       </c>
       <c r="K7">
-        <v>745.3</v>
+        <v>142.7</v>
       </c>
       <c r="L7">
-        <v>0.4547562389407529</v>
+        <v>0.407365115615187</v>
       </c>
       <c r="M7">
-        <v>79.90000000000001</v>
+        <v>53.2</v>
       </c>
       <c r="N7">
-        <v>0.03675252989880405</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="O7">
-        <v>0.1072051522876694</v>
+        <v>0.3728100911002103</v>
       </c>
       <c r="P7">
-        <v>79.90000000000001</v>
+        <v>53.2</v>
       </c>
       <c r="Q7">
-        <v>0.03675252989880405</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="R7">
-        <v>0.1072051522876694</v>
+        <v>0.3728100911002103</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1246,55 +1249,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>7061.1</v>
+        <v>582.6</v>
       </c>
       <c r="V7">
-        <v>3.247976080956762</v>
+        <v>0.4252865172640339</v>
       </c>
       <c r="W7">
-        <v>0.1152769399718497</v>
+        <v>0.08978795696218461</v>
       </c>
       <c r="X7">
-        <v>0.2485943544851154</v>
+        <v>0.06954876699475925</v>
       </c>
       <c r="Y7">
-        <v>-0.1333174145132657</v>
+        <v>0.02023918996742537</v>
       </c>
       <c r="Z7">
-        <v>0.07789089258017365</v>
+        <v>0.09831079870277128</v>
       </c>
       <c r="AA7">
-        <v>0.0005962192374570458</v>
+        <v>0.0002109303005768428</v>
       </c>
       <c r="AB7">
-        <v>0.04615877754993647</v>
+        <v>0.03998961706787064</v>
       </c>
       <c r="AC7">
-        <v>-0.04556255831247942</v>
+        <v>-0.03977868676729379</v>
       </c>
       <c r="AD7">
-        <v>21244.6</v>
+        <v>1921.6</v>
       </c>
       <c r="AE7">
-        <v>123.1708466630946</v>
+        <v>13.4894422817403</v>
       </c>
       <c r="AF7">
-        <v>21367.77084666309</v>
+        <v>1935.08944228174</v>
       </c>
       <c r="AG7">
-        <v>14306.67084666309</v>
+        <v>1352.48944228174</v>
       </c>
       <c r="AH7">
-        <v>0.9076535060102264</v>
+        <v>0.5855054837772095</v>
       </c>
       <c r="AI7">
-        <v>0.7455120763392457</v>
+        <v>0.5203126927473198</v>
       </c>
       <c r="AJ7">
-        <v>0.8680878939803485</v>
+        <v>0.4968023388851252</v>
       </c>
       <c r="AK7">
-        <v>0.662322236008221</v>
+        <v>0.431211221070723</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1303,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>521.9803439803439</v>
+        <v>544.3626062322946</v>
       </c>
       <c r="AP7">
-        <v>351.5152542177664</v>
+        <v>383.1414850656488</v>
       </c>
     </row>
     <row r="8">
@@ -1317,7 +1320,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Huishang Bank Corporation Limited (SEHK:3698)</t>
+          <t>Jiangsu Jiangyin Rural Commercial Bank Co.,LTD. (SZSE:002807)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1325,12 +1328,6 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D8">
-        <v>0.116</v>
-      </c>
-      <c r="E8">
-        <v>0.121</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
@@ -1338,34 +1335,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.005862510123520624</v>
+        <v>0.001724144210458702</v>
       </c>
       <c r="J8">
-        <v>0.004764912634785007</v>
+        <v>0.001724144210458702</v>
       </c>
       <c r="K8">
-        <v>1367.8</v>
+        <v>150.8</v>
       </c>
       <c r="L8">
-        <v>0.5141911958197061</v>
+        <v>0.4883419689119171</v>
       </c>
       <c r="M8">
-        <v>97.2384</v>
+        <v>57.1</v>
       </c>
       <c r="N8">
-        <v>0.02178767645081784</v>
+        <v>0.04010113069738043</v>
       </c>
       <c r="O8">
-        <v>0.07109109518935516</v>
+        <v>0.3786472148541114</v>
       </c>
       <c r="P8">
-        <v>97.2384</v>
+        <v>57.1</v>
       </c>
       <c r="Q8">
-        <v>0.02178767645081784</v>
+        <v>0.04010113069738043</v>
       </c>
       <c r="R8">
-        <v>0.07109109518935516</v>
+        <v>0.3786472148541114</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1374,55 +1371,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>7983.5</v>
+        <v>314.7</v>
       </c>
       <c r="V8">
-        <v>1.788819179923818</v>
+        <v>0.2210127115668235</v>
       </c>
       <c r="W8">
-        <v>0.1600720897845498</v>
+        <v>0.09509395888510531</v>
       </c>
       <c r="X8">
-        <v>0.1993626372876737</v>
+        <v>0.07506635667201289</v>
       </c>
       <c r="Y8">
-        <v>-0.03929054750312383</v>
+        <v>0.02002760221309242</v>
       </c>
       <c r="Z8">
-        <v>0.06444583103622388</v>
+        <v>0.09414812335043549</v>
       </c>
       <c r="AA8">
-        <v>0.0003070787545637229</v>
+        <v>0.0001623249418002051</v>
       </c>
       <c r="AB8">
-        <v>0.04617157393365263</v>
+        <v>0.04008548222358586</v>
       </c>
       <c r="AC8">
-        <v>-0.04586449517908891</v>
+        <v>-0.03992315728178566</v>
       </c>
       <c r="AD8">
-        <v>33023.4</v>
+        <v>2365.7</v>
       </c>
       <c r="AE8">
-        <v>151.0256841021139</v>
+        <v>3.737921339051764</v>
       </c>
       <c r="AF8">
-        <v>33174.42568410211</v>
+        <v>2369.437921339052</v>
       </c>
       <c r="AG8">
-        <v>25190.92568410211</v>
+        <v>2054.737921339052</v>
       </c>
       <c r="AH8">
-        <v>0.8814212205303629</v>
+        <v>0.6246313854639762</v>
       </c>
       <c r="AI8">
-        <v>0.7538541285366606</v>
+        <v>0.5757578032785415</v>
       </c>
       <c r="AJ8">
-        <v>0.8494971610995613</v>
+        <v>0.5906731220098095</v>
       </c>
       <c r="AK8">
-        <v>0.699302602598421</v>
+        <v>0.540629747917455</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1431,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>721.0349344978167</v>
+        <v>1848.203125</v>
       </c>
       <c r="AP8">
-        <v>550.0202114432776</v>
+        <v>1605.264001046134</v>
       </c>
     </row>
     <row r="9">
@@ -1445,7 +1442,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bank of Guiyang Co., Ltd. (SHSE:601997)</t>
+          <t>Bank of Ningbo Co., Ltd. (SZSE:002142)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1453,6 +1450,12 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D9">
+        <v>0.154</v>
+      </c>
+      <c r="E9">
+        <v>0.175</v>
+      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1460,34 +1463,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.003620523735225245</v>
+        <v>0.002294432891544078</v>
       </c>
       <c r="J9">
-        <v>0.003405937214736361</v>
+        <v>0.002111799903480904</v>
       </c>
       <c r="K9">
-        <v>798.8</v>
+        <v>2101.8</v>
       </c>
       <c r="L9">
-        <v>0.5731506062997775</v>
+        <v>0.4740296353097725</v>
       </c>
       <c r="M9">
-        <v>128.72</v>
+        <v>444.592</v>
       </c>
       <c r="N9">
-        <v>0.02913337709073625</v>
+        <v>0.01367049996925158</v>
       </c>
       <c r="O9">
-        <v>0.1611417125688533</v>
+        <v>0.21152916547721</v>
       </c>
       <c r="P9">
-        <v>128.72</v>
+        <v>444.592</v>
       </c>
       <c r="Q9">
-        <v>0.02913337709073625</v>
+        <v>0.01367049996925158</v>
       </c>
       <c r="R9">
-        <v>0.1611417125688533</v>
+        <v>0.21152916547721</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1496,55 +1499,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>3634.5</v>
+        <v>4501.5</v>
       </c>
       <c r="V9">
-        <v>0.8226014530475522</v>
+        <v>0.138413996679171</v>
       </c>
       <c r="W9">
-        <v>0.1953629426726668</v>
+        <v>0.1819787526948752</v>
       </c>
       <c r="X9">
-        <v>0.1458788836055643</v>
+        <v>0.07719117274606256</v>
       </c>
       <c r="Y9">
-        <v>0.04948405906710251</v>
+        <v>0.1047875799488126</v>
       </c>
       <c r="Z9">
-        <v>0.07618357147319563</v>
+        <v>0.0895850783559916</v>
       </c>
       <c r="AA9">
-        <v>0.0002594764612320843</v>
+        <v>0.0001891857598255123</v>
       </c>
       <c r="AB9">
-        <v>0.04619739177114655</v>
+        <v>0.0401177422695427</v>
       </c>
       <c r="AC9">
-        <v>-0.04593791530991447</v>
+        <v>-0.03992855650971719</v>
       </c>
       <c r="AD9">
-        <v>21282.9</v>
+        <v>56892.5</v>
       </c>
       <c r="AE9">
-        <v>60.77038035108288</v>
+        <v>375.1335700109136</v>
       </c>
       <c r="AF9">
-        <v>21343.67038035108</v>
+        <v>57267.63357001091</v>
       </c>
       <c r="AG9">
-        <v>17709.17038035108</v>
+        <v>52766.13357001091</v>
       </c>
       <c r="AH9">
-        <v>0.8284952612409693</v>
+        <v>0.6377978313649993</v>
       </c>
       <c r="AI9">
-        <v>0.7965372663237718</v>
+        <v>0.7705326908580364</v>
       </c>
       <c r="AJ9">
-        <v>0.800325119679139</v>
+        <v>0.6186808335616407</v>
       </c>
       <c r="AK9">
-        <v>0.7646093245921323</v>
+        <v>0.7557383952567686</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1553,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>1237.377906976744</v>
+        <v>667.7523474178404</v>
       </c>
       <c r="AP9">
-        <v>1029.602929090179</v>
+        <v>619.3208165494239</v>
       </c>
     </row>
     <row r="10">
@@ -1582,34 +1585,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.003563487476116103</v>
+        <v>0.004927226023884465</v>
       </c>
       <c r="J10">
-        <v>0.003207748318248696</v>
+        <v>0.004375562837369803</v>
       </c>
       <c r="K10">
-        <v>736</v>
+        <v>845.8</v>
       </c>
       <c r="L10">
-        <v>0.5758998435054773</v>
+        <v>0.5709078636517043</v>
       </c>
       <c r="M10">
-        <v>213.3</v>
+        <v>331.6</v>
       </c>
       <c r="N10">
-        <v>0.04533089641688274</v>
+        <v>0.05616816572657825</v>
       </c>
       <c r="O10">
-        <v>0.2898097826086957</v>
+        <v>0.3920548593048002</v>
       </c>
       <c r="P10">
-        <v>213.3</v>
+        <v>331.6</v>
       </c>
       <c r="Q10">
-        <v>0.04533089641688274</v>
+        <v>0.05616816572657825</v>
       </c>
       <c r="R10">
-        <v>0.2898097826086957</v>
+        <v>0.3920548593048002</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1618,55 +1621,55 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>2968.6</v>
+        <v>4968.3</v>
       </c>
       <c r="V10">
-        <v>0.6308921664470608</v>
+        <v>0.8415569896844353</v>
       </c>
       <c r="W10">
-        <v>0.1690787962324833</v>
+        <v>0.1780556608142815</v>
       </c>
       <c r="X10">
-        <v>0.1175681001044377</v>
+        <v>0.1002033280616074</v>
       </c>
       <c r="Y10">
-        <v>0.05151069612804567</v>
+        <v>0.07785233275267414</v>
       </c>
       <c r="Z10">
-        <v>0.08692618413400204</v>
+        <v>0.0821781722061356</v>
       </c>
       <c r="AA10">
-        <v>0.0002788373209676216</v>
+        <v>0.000359575756348143</v>
       </c>
       <c r="AB10">
-        <v>0.04622327234902186</v>
+        <v>0.04036205869708878</v>
       </c>
       <c r="AC10">
-        <v>-0.04594443502805424</v>
+        <v>-0.04000248294074064</v>
       </c>
       <c r="AD10">
-        <v>16155.3</v>
+        <v>16496.6</v>
       </c>
       <c r="AE10">
-        <v>93.2293150276181</v>
+        <v>91.00157322807583</v>
       </c>
       <c r="AF10">
-        <v>16248.52931502762</v>
+        <v>16587.60157322808</v>
       </c>
       <c r="AG10">
-        <v>13279.92931502762</v>
+        <v>11619.30157322808</v>
       </c>
       <c r="AH10">
-        <v>0.7754406856462283</v>
+        <v>0.7375118562712567</v>
       </c>
       <c r="AI10">
-        <v>0.7733738210820944</v>
+        <v>0.7467183037035148</v>
       </c>
       <c r="AJ10">
-        <v>0.7383756550919305</v>
+        <v>0.6630885424892178</v>
       </c>
       <c r="AK10">
-        <v>0.7360837487715517</v>
+        <v>0.6737505878720339</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1675,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>696.3491379310344</v>
+        <v>646.9254901960784</v>
       </c>
       <c r="AP10">
-        <v>572.4107463373973</v>
+        <v>455.6588852246305</v>
       </c>
     </row>
     <row r="11">
@@ -1689,7 +1692,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bank of Nanjing Co., Ltd. (SHSE:601009)</t>
+          <t>Bank of Suzhou Co., Ltd. (SZSE:002966)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1697,12 +1700,6 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D11">
-        <v>0.149</v>
-      </c>
-      <c r="E11">
-        <v>0.188</v>
-      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -1710,34 +1707,34 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.003745161815851439</v>
+        <v>0.006164633329797561</v>
       </c>
       <c r="J11">
-        <v>0.003231905839608657</v>
+        <v>0.00504727755828303</v>
       </c>
       <c r="K11">
-        <v>1733</v>
+        <v>370.7</v>
       </c>
       <c r="L11">
-        <v>0.5286437679214203</v>
+        <v>0.3902926931985681</v>
       </c>
       <c r="M11">
-        <v>80</v>
+        <v>311.2</v>
       </c>
       <c r="N11">
-        <v>0.007488112621213822</v>
+        <v>0.07936346016525553</v>
       </c>
       <c r="O11">
-        <v>0.04616272360069244</v>
+        <v>0.8394928513622876</v>
       </c>
       <c r="P11">
-        <v>80</v>
+        <v>311.2</v>
       </c>
       <c r="Q11">
-        <v>0.007488112621213822</v>
+        <v>0.07936346016525553</v>
       </c>
       <c r="R11">
-        <v>0.04616272360069244</v>
+        <v>0.8394928513622876</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1746,55 +1743,55 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>3958.1</v>
+        <v>1603.5</v>
       </c>
       <c r="V11">
-        <v>0.3704837320753304</v>
+        <v>0.4089309395083138</v>
       </c>
       <c r="W11">
-        <v>0.18360968374212</v>
+        <v>0.09679356624366807</v>
       </c>
       <c r="X11">
-        <v>0.1394493677574855</v>
+        <v>0.1145578428438721</v>
       </c>
       <c r="Y11">
-        <v>0.04416031598463455</v>
+        <v>-0.01776427660020408</v>
       </c>
       <c r="Z11">
-        <v>0.06091325693164806</v>
+        <v>0.06738213584964069</v>
       </c>
       <c r="AA11">
-        <v>0.0001968659107869758</v>
+        <v>0.0003400963421030698</v>
       </c>
       <c r="AB11">
-        <v>0.04620213524336786</v>
+        <v>0.04045631630512962</v>
       </c>
       <c r="AC11">
-        <v>-0.04600526933258088</v>
+        <v>-0.04011621996302655</v>
       </c>
       <c r="AD11">
-        <v>48104.7</v>
+        <v>13520.5</v>
       </c>
       <c r="AE11">
-        <v>162.6130526763791</v>
+        <v>62.22415631679139</v>
       </c>
       <c r="AF11">
-        <v>48267.31305267638</v>
+        <v>13582.72415631679</v>
       </c>
       <c r="AG11">
-        <v>44309.21305267638</v>
+        <v>11979.22415631679</v>
       </c>
       <c r="AH11">
-        <v>0.8187712548157902</v>
+        <v>0.7759816618843768</v>
       </c>
       <c r="AI11">
-        <v>0.8014163395798971</v>
+        <v>0.7506579949146953</v>
       </c>
       <c r="AJ11">
-        <v>0.8057273413206483</v>
+        <v>0.7533902264838502</v>
       </c>
       <c r="AK11">
-        <v>0.7874475785129746</v>
+        <v>0.7264131496067908</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1803,10 +1800,10 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>1073.765625</v>
+        <v>738.8251366120219</v>
       </c>
       <c r="AP11">
-        <v>989.0449342115264</v>
+        <v>654.6024129134859</v>
       </c>
     </row>
     <row r="12">
@@ -1817,7 +1814,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bank of Jiangsu Co., Ltd. (SHSE:600919)</t>
+          <t>Bank of Guiyang Co.,Ltd. (SHSE:601997)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1832,34 +1829,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.00398669025300241</v>
+        <v>0.004750707631349761</v>
       </c>
       <c r="J12">
-        <v>0.003709724270846558</v>
+        <v>0.004517663734576904</v>
       </c>
       <c r="K12">
-        <v>2054.8</v>
+        <v>848.1</v>
       </c>
       <c r="L12">
-        <v>0.5329805721993101</v>
+        <v>0.5582176002106234</v>
       </c>
       <c r="M12">
-        <v>554.136</v>
+        <v>148.028</v>
       </c>
       <c r="N12">
-        <v>0.04616299702596656</v>
+        <v>0.03777573623232787</v>
       </c>
       <c r="O12">
-        <v>0.269678800856531</v>
+        <v>0.1745407381205046</v>
       </c>
       <c r="P12">
-        <v>554.136</v>
+        <v>148.028</v>
       </c>
       <c r="Q12">
-        <v>0.04616299702596656</v>
+        <v>0.03777573623232787</v>
       </c>
       <c r="R12">
-        <v>0.269678800856531</v>
+        <v>0.1745407381205046</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1868,55 +1865,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>5262.3</v>
+        <v>3185.9</v>
       </c>
       <c r="V12">
-        <v>0.4383825256791543</v>
+        <v>0.8130199561067729</v>
       </c>
       <c r="W12">
-        <v>0.1416312266940537</v>
+        <v>0.1851261678162927</v>
       </c>
       <c r="X12">
-        <v>0.1772480738918564</v>
+        <v>0.1650222813341274</v>
       </c>
       <c r="Y12">
-        <v>-0.03561684719780275</v>
+        <v>0.02010388648216527</v>
       </c>
       <c r="Z12">
-        <v>0.04496215221427128</v>
+        <v>0.06609384680378885</v>
       </c>
       <c r="AA12">
-        <v>0.0001667971873387795</v>
+        <v>0.0002985897747841585</v>
       </c>
       <c r="AB12">
-        <v>0.04618003434184963</v>
+        <v>0.04064295710740269</v>
       </c>
       <c r="AC12">
-        <v>-0.04601323715451085</v>
+        <v>-0.04034436733261854</v>
       </c>
       <c r="AD12">
-        <v>76047.8</v>
+        <v>22527.5</v>
       </c>
       <c r="AE12">
-        <v>262.6505653379991</v>
+        <v>58.91124947845155</v>
       </c>
       <c r="AF12">
-        <v>76310.450565338</v>
+        <v>22586.41124947845</v>
       </c>
       <c r="AG12">
-        <v>71048.150565338</v>
+        <v>19400.51124947845</v>
       </c>
       <c r="AH12">
-        <v>0.8640775828259181</v>
+        <v>0.8521562596930757</v>
       </c>
       <c r="AI12">
-        <v>0.8020483602765015</v>
+        <v>0.7811769137955749</v>
       </c>
       <c r="AJ12">
-        <v>0.8554653386847277</v>
+        <v>0.8319575751375327</v>
       </c>
       <c r="AK12">
-        <v>0.7904589522887638</v>
+        <v>0.7540794159720109</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1925,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>1119.9970544919</v>
+        <v>1185.657894736842</v>
       </c>
       <c r="AP12">
-        <v>1046.364514953431</v>
+        <v>1021.079539446234</v>
       </c>
     </row>
     <row r="13">
@@ -1939,7 +1936,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Jiangsu Jiangyin Rural Commercial Bank Co.,LTD. (SZSE:002807)</t>
+          <t>Bank of Nanjing Co., Ltd. (SHSE:601009)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1947,6 +1944,12 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D13">
+        <v>0.0989</v>
+      </c>
+      <c r="E13">
+        <v>0.138</v>
+      </c>
       <c r="G13">
         <v>0</v>
       </c>
@@ -1954,34 +1957,34 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.002322711318144546</v>
+        <v>0.003745613902523064</v>
       </c>
       <c r="J13">
-        <v>0.002221854550627701</v>
+        <v>0.003142896431628928</v>
       </c>
       <c r="K13">
-        <v>133.5</v>
+        <v>1863.2</v>
       </c>
       <c r="L13">
-        <v>0.4508611955420466</v>
+        <v>0.5110958716225483</v>
       </c>
       <c r="M13">
-        <v>12.2</v>
+        <v>87.8</v>
       </c>
       <c r="N13">
-        <v>0.008392955421023666</v>
+        <v>0.007089220831651191</v>
       </c>
       <c r="O13">
-        <v>0.09138576779026217</v>
+        <v>0.04712322885358523</v>
       </c>
       <c r="P13">
-        <v>12.2</v>
+        <v>87.8</v>
       </c>
       <c r="Q13">
-        <v>0.008392955421023666</v>
+        <v>0.007089220831651191</v>
       </c>
       <c r="R13">
-        <v>0.09138576779026217</v>
+        <v>0.04712322885358523</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1990,55 +1993,55 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>357.3</v>
+        <v>3059.4</v>
       </c>
       <c r="V13">
-        <v>0.2458035222894882</v>
+        <v>0.2470246265643924</v>
       </c>
       <c r="W13">
-        <v>0.09194214876033058</v>
+        <v>0.1784947884733293</v>
       </c>
       <c r="X13">
-        <v>0.07559189178193498</v>
+        <v>0.1357782044125629</v>
       </c>
       <c r="Y13">
-        <v>0.01635025697839559</v>
+        <v>0.04271658406076634</v>
       </c>
       <c r="Z13">
-        <v>0.07609846973186438</v>
+        <v>0.06497380473868168</v>
       </c>
       <c r="AA13">
-        <v>0.0001690797312695472</v>
+        <v>0.0002042059390625573</v>
       </c>
       <c r="AB13">
-        <v>0.04631608692699268</v>
+        <v>0.04055405939642386</v>
       </c>
       <c r="AC13">
-        <v>-0.04614700719572314</v>
+        <v>-0.04034985345736131</v>
       </c>
       <c r="AD13">
-        <v>2047.7</v>
+        <v>54734.5</v>
       </c>
       <c r="AE13">
-        <v>2.811225893487</v>
+        <v>144.2268225917609</v>
       </c>
       <c r="AF13">
-        <v>2050.511225893487</v>
+        <v>54878.72682259176</v>
       </c>
       <c r="AG13">
-        <v>1693.211225893487</v>
+        <v>51819.32682259176</v>
       </c>
       <c r="AH13">
-        <v>0.5851729850186598</v>
+        <v>0.8158740143455704</v>
       </c>
       <c r="AI13">
-        <v>0.5613361779389917</v>
+        <v>0.7804483116995389</v>
       </c>
       <c r="AJ13">
-        <v>0.5380720686264637</v>
+        <v>0.8071002280855306</v>
       </c>
       <c r="AK13">
-        <v>0.5137775999153035</v>
+        <v>0.770461378386362</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2047,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>1638.16</v>
+        <v>1287.870588235294</v>
       </c>
       <c r="AP13">
-        <v>1354.56898071479</v>
+        <v>1219.27827817863</v>
       </c>
     </row>
     <row r="14">
@@ -2061,7 +2064,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bank of Ningbo Co., Ltd. (SZSE:002142)</t>
+          <t>Bank of Changsha Co., Ltd. (SHSE:601577)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2069,12 +2072,6 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D14">
-        <v>0.155</v>
-      </c>
-      <c r="E14">
-        <v>0.188</v>
-      </c>
       <c r="G14">
         <v>0</v>
       </c>
@@ -2082,34 +2079,34 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001771312255833867</v>
+        <v>0.002452101199556047</v>
       </c>
       <c r="J14">
-        <v>0.001643182053513229</v>
+        <v>0.002025297863515637</v>
       </c>
       <c r="K14">
-        <v>1815.1</v>
+        <v>762.9</v>
       </c>
       <c r="L14">
-        <v>0.5031601707601042</v>
+        <v>0.4284270230808109</v>
       </c>
       <c r="M14">
-        <v>315.1848</v>
+        <v>252</v>
       </c>
       <c r="N14">
-        <v>0.01385153705860379</v>
+        <v>0.05050808730683663</v>
       </c>
       <c r="O14">
-        <v>0.1736459699190127</v>
+        <v>0.3303185214313803</v>
       </c>
       <c r="P14">
-        <v>315.1848</v>
+        <v>252</v>
       </c>
       <c r="Q14">
-        <v>0.01385153705860379</v>
+        <v>0.05050808730683663</v>
       </c>
       <c r="R14">
-        <v>0.1736459699190127</v>
+        <v>0.3303185214313803</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2118,55 +2115,55 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>4616.5</v>
+        <v>2970.3</v>
       </c>
       <c r="V14">
-        <v>0.202882946230416</v>
+        <v>0.5953340147916542</v>
       </c>
       <c r="W14">
-        <v>0.184435141341679</v>
+        <v>0.1619332654100866</v>
       </c>
       <c r="X14">
-        <v>0.08312383752328988</v>
+        <v>0.1305487666329186</v>
       </c>
       <c r="Y14">
-        <v>0.1013113038183891</v>
+        <v>0.03138449877716795</v>
       </c>
       <c r="Z14">
-        <v>0.06557508068479459</v>
+        <v>0.07071723004878662</v>
       </c>
       <c r="AA14">
-        <v>0.0001077517957389364</v>
+        <v>0.0001432234549315514</v>
       </c>
       <c r="AB14">
-        <v>0.04628938201232638</v>
+        <v>0.04053335277161072</v>
       </c>
       <c r="AC14">
-        <v>-0.04618163021658744</v>
+        <v>-0.04039012931667917</v>
       </c>
       <c r="AD14">
-        <v>40113.4</v>
+        <v>20712.1</v>
       </c>
       <c r="AE14">
-        <v>324.5508408415245</v>
+        <v>206.6677169697527</v>
       </c>
       <c r="AF14">
-        <v>40437.95084084153</v>
+        <v>20918.76771696975</v>
       </c>
       <c r="AG14">
-        <v>35821.45084084153</v>
+        <v>17948.46771696975</v>
       </c>
       <c r="AH14">
-        <v>0.6399174316357789</v>
+        <v>0.8074229211338669</v>
       </c>
       <c r="AI14">
-        <v>0.7472229524479618</v>
+        <v>0.7599593206021713</v>
       </c>
       <c r="AJ14">
-        <v>0.6115385294926422</v>
+        <v>0.7824853725278232</v>
       </c>
       <c r="AK14">
-        <v>0.7236488492159784</v>
+        <v>0.7309237826104656</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2175,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>562.6002805049088</v>
+        <v>453.2188183807439</v>
       </c>
       <c r="AP14">
-        <v>502.4046401240046</v>
+        <v>392.7454642662966</v>
       </c>
     </row>
     <row r="15">
@@ -2189,7 +2186,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jiangsu Suzhou Rural Commercial Bank Co., Ltd (SHSE:603323)</t>
+          <t>Bank of Jiujiang Co., Ltd. (SEHK:6190)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2204,34 +2201,34 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0007723760387282652</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0006977529658751113</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>127.4</v>
+        <v>253.1</v>
       </c>
       <c r="L15">
-        <v>0.4068987543915682</v>
+        <v>0.3573849195142615</v>
       </c>
       <c r="M15">
-        <v>23.9</v>
+        <v>30.5</v>
       </c>
       <c r="N15">
-        <v>0.01744652894371852</v>
+        <v>0.008946380382494427</v>
       </c>
       <c r="O15">
-        <v>0.1875981161695447</v>
+        <v>0.120505728960885</v>
       </c>
       <c r="P15">
-        <v>23.9</v>
+        <v>30.5</v>
       </c>
       <c r="Q15">
-        <v>0.01744652894371852</v>
+        <v>0.008946380382494427</v>
       </c>
       <c r="R15">
-        <v>0.1875981161695447</v>
+        <v>0.120505728960885</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2240,67 +2237,61 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>809.2</v>
+        <v>1981</v>
       </c>
       <c r="V15">
-        <v>0.5907000510986203</v>
+        <v>0.5810747389416873</v>
       </c>
       <c r="W15">
-        <v>0.09490464839094159</v>
+        <v>0.07268811028144745</v>
       </c>
       <c r="X15">
-        <v>0.08822653131419592</v>
+        <v>0.1041613089366546</v>
       </c>
       <c r="Y15">
-        <v>0.006678117076745677</v>
+        <v>-0.03147319865520716</v>
       </c>
       <c r="Z15">
-        <v>0.09730731770646123</v>
+        <v>0.0546328367880644</v>
       </c>
       <c r="AA15">
-        <v>6.789646953103505e-05</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.04627496653825208</v>
+        <v>0.04039113477337762</v>
       </c>
       <c r="AC15">
-        <v>-0.04620707006872105</v>
+        <v>-0.04039113477337762</v>
       </c>
       <c r="AD15">
-        <v>2769.6</v>
+        <v>10193.8</v>
       </c>
       <c r="AE15">
-        <v>5.040845311370901</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>2774.640845311371</v>
+        <v>10193.8</v>
       </c>
       <c r="AG15">
-        <v>1965.440845311371</v>
+        <v>8212.799999999999</v>
       </c>
       <c r="AH15">
-        <v>0.6694688142476053</v>
+        <v>0.7493788134970226</v>
       </c>
       <c r="AI15">
-        <v>0.6335171288232037</v>
+        <v>0.7333721825336873</v>
       </c>
       <c r="AJ15">
-        <v>0.5892773591863254</v>
+        <v>0.7066597831698502</v>
       </c>
       <c r="AK15">
-        <v>0.5504602609132101</v>
+        <v>0.6890568760539982</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
         <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>2215.68</v>
-      </c>
-      <c r="AP15">
-        <v>1572.352676249097</v>
       </c>
     </row>
     <row r="16">
@@ -2311,7 +2302,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bank of Hangzhou Co., Ltd. (SHSE:600926)</t>
+          <t>Shengjing Bank Co., Ltd. (SEHK:2066)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2319,6 +2310,12 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D16">
+        <v>-0.0143</v>
+      </c>
+      <c r="E16">
+        <v>-0.0347</v>
+      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -2326,34 +2323,34 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>-0.004042331542426654</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>-0.003647856880860059</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>882.2</v>
+        <v>724.3</v>
       </c>
       <c r="L16">
-        <v>0.4902745359564299</v>
+        <v>0.4782436447672499</v>
       </c>
       <c r="M16">
-        <v>179.557</v>
+        <v>100.3</v>
       </c>
       <c r="N16">
-        <v>0.02660497851533561</v>
+        <v>0.01222738299869558</v>
       </c>
       <c r="O16">
-        <v>0.2035332124234867</v>
+        <v>0.1384785309954439</v>
       </c>
       <c r="P16">
-        <v>179.557</v>
+        <v>100.3</v>
       </c>
       <c r="Q16">
-        <v>0.02660497851533561</v>
+        <v>0.01222738299869558</v>
       </c>
       <c r="R16">
-        <v>0.2035332124234867</v>
+        <v>0.1384785309954439</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2362,67 +2359,61 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>9576.299999999999</v>
+        <v>4149.9</v>
       </c>
       <c r="V16">
-        <v>1.418921321677285</v>
+        <v>0.5059064477197088</v>
       </c>
       <c r="W16">
-        <v>0.1321331216487434</v>
+        <v>0.08545203572397682</v>
       </c>
       <c r="X16">
-        <v>0.1733429083493837</v>
+        <v>0.1077603483217636</v>
       </c>
       <c r="Y16">
-        <v>-0.04120978670064035</v>
+        <v>-0.02230831259778675</v>
       </c>
       <c r="Z16">
-        <v>0.04862879334677365</v>
+        <v>0.03886442487323192</v>
       </c>
       <c r="AA16">
-        <v>-0.0001773908784179501</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.0461817922693505</v>
+        <v>0.04041538190514259</v>
       </c>
       <c r="AC16">
-        <v>-0.04635918314776845</v>
+        <v>-0.04041538190514259</v>
       </c>
       <c r="AD16">
-        <v>41331.5</v>
+        <v>25872.9</v>
       </c>
       <c r="AE16">
-        <v>290.3688568872126</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>41621.86885688721</v>
+        <v>25872.9</v>
       </c>
       <c r="AG16">
-        <v>32045.56885688721</v>
+        <v>21723</v>
       </c>
       <c r="AH16">
-        <v>0.8604738728186179</v>
+        <v>0.7592749106403958</v>
       </c>
       <c r="AI16">
-        <v>0.8287103541372355</v>
+        <v>0.6928669748110696</v>
       </c>
       <c r="AJ16">
-        <v>0.8260323494018712</v>
+        <v>0.7258929556003327</v>
       </c>
       <c r="AK16">
-        <v>0.7883566324244065</v>
+        <v>0.6544669030697248</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>813.6122047244095</v>
-      </c>
-      <c r="AP16">
-        <v>630.818284584394</v>
       </c>
     </row>
     <row r="17">
@@ -2433,7 +2424,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jiangsu Zhangjiagang Rural Commercial Bank  Co., Ltd. (SZSE:002839)</t>
+          <t>Guangzhou Rural Commercial Bank Co., Ltd. (SEHK:1551)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2448,34 +2439,34 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.005773214812503594</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.005372745861592079</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>129.4</v>
+        <v>992.9</v>
       </c>
       <c r="L17">
-        <v>0.4266402901417738</v>
+        <v>0.4387150936726759</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>277.7</v>
       </c>
       <c r="N17">
-        <v>0.02464332036316472</v>
+        <v>0.06272020959436263</v>
       </c>
       <c r="O17">
-        <v>0.2936630602782071</v>
+        <v>0.2796857689596132</v>
       </c>
       <c r="P17">
-        <v>38</v>
+        <v>277.7</v>
       </c>
       <c r="Q17">
-        <v>0.02464332036316472</v>
+        <v>0.06272020959436263</v>
       </c>
       <c r="R17">
-        <v>0.2936630602782071</v>
+        <v>0.2796857689596132</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2484,67 +2475,61 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>474.1</v>
+        <v>6105.2</v>
       </c>
       <c r="V17">
-        <v>0.3074578469520104</v>
+        <v>1.378896015900262</v>
       </c>
       <c r="W17">
-        <v>0.09927119294207902</v>
+        <v>0.1236457373415357</v>
       </c>
       <c r="X17">
-        <v>0.07406631926130722</v>
+        <v>0.1208749359514463</v>
       </c>
       <c r="Y17">
-        <v>0.0252048736807718</v>
+        <v>0.002770801390089395</v>
       </c>
       <c r="Z17">
-        <v>0.1007358426240398</v>
+        <v>0.1071626427012259</v>
       </c>
       <c r="AA17">
-        <v>0.0005412280815723009</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.04889648481174352</v>
+        <v>0.04048957265961627</v>
       </c>
       <c r="AC17">
-        <v>-0.04835525673017122</v>
+        <v>-0.04048957265961627</v>
       </c>
       <c r="AD17">
-        <v>2050.3</v>
+        <v>16611.6</v>
       </c>
       <c r="AE17">
-        <v>10.4449197368383</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>2060.744919736838</v>
+        <v>16611.6</v>
       </c>
       <c r="AG17">
-        <v>1586.644919736838</v>
+        <v>10506.4</v>
       </c>
       <c r="AH17">
-        <v>0.571993012452118</v>
+        <v>0.7895547359215179</v>
       </c>
       <c r="AI17">
-        <v>0.585964114644851</v>
+        <v>0.6087689466123311</v>
       </c>
       <c r="AJ17">
-        <v>0.5071348652343382</v>
+        <v>0.7035221641890986</v>
       </c>
       <c r="AK17">
-        <v>0.5214518343108645</v>
+        <v>0.4960060428665847</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
         <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>533.9322916666667</v>
-      </c>
-      <c r="AP17">
-        <v>413.1887811814684</v>
       </c>
     </row>
     <row r="18">
@@ -2555,7 +2540,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jiangsu Changshu Rural Commercial Bank Co., Ltd. (SHSE:601128)</t>
+          <t>Bank of Jiangsu Co., Ltd. (SHSE:600919)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2570,34 +2555,34 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.00040196226775001</v>
+        <v>0.004398437829251729</v>
       </c>
       <c r="J18">
-        <v>0.0003314583428315578</v>
+        <v>0.00427621662895043</v>
       </c>
       <c r="K18">
-        <v>243</v>
+        <v>2163.9</v>
       </c>
       <c r="L18">
-        <v>0.3747108712413261</v>
+        <v>0.5261890866647214</v>
       </c>
       <c r="M18">
-        <v>83.3</v>
+        <v>12908</v>
       </c>
       <c r="N18">
-        <v>0.02322922476296709</v>
+        <v>1.336937720742835</v>
       </c>
       <c r="O18">
-        <v>0.342798353909465</v>
+        <v>5.965155506261842</v>
       </c>
       <c r="P18">
-        <v>83.3</v>
+        <v>12908</v>
       </c>
       <c r="Q18">
-        <v>0.02322922476296709</v>
+        <v>1.336937720742835</v>
       </c>
       <c r="R18">
-        <v>0.342798353909465</v>
+        <v>5.965155506261842</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2606,55 +2591,55 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>825.9</v>
+        <v>11947.8</v>
       </c>
       <c r="V18">
-        <v>0.2303123257110987</v>
+        <v>1.23748562905882</v>
       </c>
       <c r="W18">
-        <v>0.1374434389140272</v>
+        <v>0.1428835550860048</v>
       </c>
       <c r="X18">
-        <v>0.0670635603631743</v>
+        <v>0.2372992347131305</v>
       </c>
       <c r="Y18">
-        <v>0.07037987855085286</v>
+        <v>-0.09441567962712569</v>
       </c>
       <c r="Z18">
-        <v>0.1121245518972952</v>
+        <v>0.04602318697510925</v>
       </c>
       <c r="AA18">
-        <v>3.716461816260845e-05</v>
+        <v>0.0001968051174602571</v>
       </c>
       <c r="AB18">
-        <v>0.04860327528368241</v>
+        <v>0.04076159555270723</v>
       </c>
       <c r="AC18">
-        <v>-0.0485661106655198</v>
+        <v>-0.04056479043524697</v>
       </c>
       <c r="AD18">
-        <v>3541.6</v>
+        <v>87214.10000000001</v>
       </c>
       <c r="AE18">
-        <v>28.84663734682059</v>
+        <v>240.0593213549259</v>
       </c>
       <c r="AF18">
-        <v>3570.44663734682</v>
+        <v>87454.15932135493</v>
       </c>
       <c r="AG18">
-        <v>2744.54663734682</v>
+        <v>75506.35932135493</v>
       </c>
       <c r="AH18">
-        <v>0.4989133320318486</v>
+        <v>0.900576732310321</v>
       </c>
       <c r="AI18">
-        <v>0.5986015357541814</v>
+        <v>0.7825969443612164</v>
       </c>
       <c r="AJ18">
-        <v>0.4335402287624691</v>
+        <v>0.8866280269110706</v>
       </c>
       <c r="AK18">
-        <v>0.5340887245540197</v>
+        <v>0.7565702323085952</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -2663,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>587.3300165837479</v>
+        <v>1319.426626323752</v>
       </c>
       <c r="AP18">
-        <v>455.1486960774163</v>
+        <v>1142.304982168758</v>
       </c>
     </row>
     <row r="19">
@@ -2677,7 +2662,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bank of Gansu Co., Ltd. (SEHK:2139)</t>
+          <t>Bank of Hangzhou Co., Ltd. (SHSE:600926)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2692,34 +2677,34 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02236359811069176</v>
+        <v>-0.003491803904138132</v>
       </c>
       <c r="J19">
-        <v>0.01598148412315133</v>
+        <v>-0.003064866382040077</v>
       </c>
       <c r="K19">
-        <v>151.5</v>
+        <v>1012.1</v>
       </c>
       <c r="L19">
-        <v>0.2764598540145985</v>
+        <v>0.4698918241329681</v>
       </c>
       <c r="M19">
-        <v>159.9</v>
+        <v>308.3704</v>
       </c>
       <c r="N19">
-        <v>0.08300887712194363</v>
+        <v>0.02275393288273663</v>
       </c>
       <c r="O19">
-        <v>1.055445544554455</v>
+        <v>0.3046837269044561</v>
       </c>
       <c r="P19">
-        <v>159.9</v>
+        <v>308.3704</v>
       </c>
       <c r="Q19">
-        <v>0.08300887712194363</v>
+        <v>0.02275393288273663</v>
       </c>
       <c r="R19">
-        <v>1.055445544554455</v>
+        <v>0.3046837269044561</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2728,55 +2713,55 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>3890.7</v>
+        <v>6820.8</v>
       </c>
       <c r="V19">
-        <v>2.019778850646317</v>
+        <v>0.5032909300197751</v>
       </c>
       <c r="W19">
-        <v>0.04204012542664484</v>
+        <v>0.1404348610359517</v>
       </c>
       <c r="X19">
-        <v>0.1198212190682973</v>
+        <v>0.1077005430009412</v>
       </c>
       <c r="Y19">
-        <v>-0.07778109364165244</v>
+        <v>0.03273431803501052</v>
       </c>
       <c r="Z19">
-        <v>0.07140415197944003</v>
+        <v>0.05299780607306392</v>
       </c>
       <c r="AA19">
-        <v>0.001141144321186505</v>
+        <v>-0.0001624311941552131</v>
       </c>
       <c r="AB19">
-        <v>0.04973440398664619</v>
+        <v>0.04041499464551272</v>
       </c>
       <c r="AC19">
-        <v>-0.04859325966545969</v>
+        <v>-0.04057742583966793</v>
       </c>
       <c r="AD19">
-        <v>6820.8</v>
+        <v>42425.8</v>
       </c>
       <c r="AE19">
-        <v>42.22374117670459</v>
+        <v>283.1049821456156</v>
       </c>
       <c r="AF19">
-        <v>6863.023741176705</v>
+        <v>42708.90498214562</v>
       </c>
       <c r="AG19">
-        <v>2972.323741176705</v>
+        <v>35888.10498214562</v>
       </c>
       <c r="AH19">
-        <v>0.7808363809634677</v>
+        <v>0.7591168565268648</v>
       </c>
       <c r="AI19">
-        <v>0.6632463561529016</v>
+        <v>0.7849227199998957</v>
       </c>
       <c r="AJ19">
-        <v>0.606767104032105</v>
+        <v>0.7258846768475734</v>
       </c>
       <c r="AK19">
-        <v>0.4603312444627124</v>
+        <v>0.7540974563386679</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2785,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>329.5072463768116</v>
+        <v>864.0692464358452</v>
       </c>
       <c r="AP19">
-        <v>143.5905188974254</v>
+        <v>730.9186350742489</v>
       </c>
     </row>
     <row r="20">
@@ -2799,7 +2784,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chongqing Rural Commercial Bank Co., Ltd. (SEHK:3618)</t>
+          <t>Bank of Zhengzhou Co., Ltd. (SEHK:6196)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2808,13 +2793,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.04099999999999999</v>
+        <v>0.0276</v>
       </c>
       <c r="E20">
-        <v>0.094</v>
-      </c>
-      <c r="F20">
-        <v>-0.0416</v>
+        <v>-0.0126</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2823,34 +2805,34 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.001914080888165439</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.001552615411845037</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1452.4</v>
+        <v>440</v>
       </c>
       <c r="L20">
-        <v>0.5041130123911006</v>
+        <v>0.4196871423120946</v>
       </c>
       <c r="M20">
-        <v>295.2</v>
+        <v>97.6833</v>
       </c>
       <c r="N20">
-        <v>0.03014090259342454</v>
+        <v>0.02208380620803473</v>
       </c>
       <c r="O20">
-        <v>0.2032497934453318</v>
+        <v>0.2220075</v>
       </c>
       <c r="P20">
-        <v>295.2</v>
+        <v>97.6833</v>
       </c>
       <c r="Q20">
-        <v>0.03014090259342454</v>
+        <v>0.02208380620803473</v>
       </c>
       <c r="R20">
-        <v>0.2032497934453318</v>
+        <v>0.2220075</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2859,67 +2841,61 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>4782.6</v>
+        <v>1698.8</v>
       </c>
       <c r="V20">
-        <v>0.4883193792117623</v>
+        <v>0.384057151900165</v>
       </c>
       <c r="W20">
-        <v>0.1445792727236529</v>
+        <v>0.09965122072745392</v>
       </c>
       <c r="X20">
-        <v>0.1168656062654425</v>
+        <v>0.1497906717173489</v>
       </c>
       <c r="Y20">
-        <v>0.02771366645821041</v>
+        <v>-0.05013945098989497</v>
       </c>
       <c r="Z20">
-        <v>0.1031859879566507</v>
+        <v>0.04367696377611599</v>
       </c>
       <c r="AA20">
-        <v>0.0001602081551879522</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.04970578601843267</v>
+        <v>0.04060152698511894</v>
       </c>
       <c r="AC20">
-        <v>-0.04954557786324472</v>
+        <v>-0.04060152698511894</v>
       </c>
       <c r="AD20">
-        <v>33459.1</v>
+        <v>22424.8</v>
       </c>
       <c r="AE20">
-        <v>26.42670776553278</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>33485.52670776553</v>
+        <v>22424.8</v>
       </c>
       <c r="AG20">
-        <v>28702.92670776553</v>
+        <v>20726</v>
       </c>
       <c r="AH20">
-        <v>0.7737036251313097</v>
+        <v>0.8352471869517769</v>
       </c>
       <c r="AI20">
-        <v>0.751741689219506</v>
+        <v>0.7826581646720485</v>
       </c>
       <c r="AJ20">
-        <v>0.7455900811421299</v>
+        <v>0.8241183651234826</v>
       </c>
       <c r="AK20">
-        <v>0.721880507628025</v>
+        <v>0.7689596450156382</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
         <v>0</v>
-      </c>
-      <c r="AN20">
-        <v>3098.064814814814</v>
-      </c>
-      <c r="AP20">
-        <v>2657.678398867179</v>
       </c>
     </row>
     <row r="21">
@@ -2930,7 +2906,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Luzhou Bank Co., Ltd. (SEHK:1983)</t>
+          <t>Harbin Bank Co., Ltd. (SEHK:6138)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2938,6 +2914,12 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D21">
+        <v>-0.007820000000000001</v>
+      </c>
+      <c r="E21">
+        <v>-0.03759999999999999</v>
+      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -2945,34 +2927,34 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.002510358054344439</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.001981490486715695</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>112.4</v>
+        <v>458.7</v>
       </c>
       <c r="L21">
-        <v>0.4051910598413843</v>
+        <v>0.3434668663421939</v>
       </c>
       <c r="M21">
-        <v>77.2</v>
+        <v>75.2</v>
       </c>
       <c r="N21">
-        <v>0.09651206400800101</v>
+        <v>0.05302496121844592</v>
       </c>
       <c r="O21">
-        <v>0.6868327402135231</v>
+        <v>0.1639415740135165</v>
       </c>
       <c r="P21">
-        <v>77.2</v>
+        <v>75.2</v>
       </c>
       <c r="Q21">
-        <v>0.09651206400800101</v>
+        <v>0.05302496121844592</v>
       </c>
       <c r="R21">
-        <v>0.6868327402135231</v>
+        <v>0.1639415740135165</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2981,67 +2963,61 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>619.6</v>
+        <v>5851.8</v>
       </c>
       <c r="V21">
-        <v>0.7745968246030754</v>
+        <v>4.126216330559864</v>
       </c>
       <c r="W21">
-        <v>0.1630639779486436</v>
+        <v>0.0651942182236814</v>
       </c>
       <c r="X21">
-        <v>0.1231903224152747</v>
+        <v>0.1731421863865358</v>
       </c>
       <c r="Y21">
-        <v>0.03987365553336888</v>
+        <v>-0.1079479681628544</v>
       </c>
       <c r="Z21">
-        <v>0.08409072242969909</v>
+        <v>0.06293768909582739</v>
       </c>
       <c r="AA21">
-        <v>0.0001666249665154988</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.04976490163952473</v>
+        <v>0.04066174841872453</v>
       </c>
       <c r="AC21">
-        <v>-0.04959827667300923</v>
+        <v>-0.04066174841872453</v>
       </c>
       <c r="AD21">
-        <v>2975.9</v>
+        <v>8699.200000000001</v>
       </c>
       <c r="AE21">
-        <v>5.118133378624264</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>2981.018133378624</v>
+        <v>8699.200000000001</v>
       </c>
       <c r="AG21">
-        <v>2361.418133378625</v>
+        <v>2847.400000000001</v>
       </c>
       <c r="AH21">
-        <v>0.7884376302839411</v>
+        <v>0.8598256469053314</v>
       </c>
       <c r="AI21">
-        <v>0.7523989121262681</v>
+        <v>0.5402458033945461</v>
       </c>
       <c r="AJ21">
-        <v>0.7469726341192002</v>
+        <v>0.6675262565641411</v>
       </c>
       <c r="AK21">
-        <v>0.7064999168705522</v>
+        <v>0.2777815716306522</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
         <v>0</v>
-      </c>
-      <c r="AN21">
-        <v>1730.174418604651</v>
-      </c>
-      <c r="AP21">
-        <v>1372.917519406177</v>
       </c>
     </row>
     <row r="22">
@@ -3052,7 +3028,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bank of Zhengzhou Co., Ltd. (SEHK:6196)</t>
+          <t>Jinshang Bank Co., Ltd. (SEHK:2558)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3067,34 +3043,34 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.007146833876208329</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.006021079614084822</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>449.5</v>
+        <v>214.9</v>
       </c>
       <c r="L22">
-        <v>0.4387077884052313</v>
+        <v>0.4469633943427621</v>
       </c>
       <c r="M22">
-        <v>124.3</v>
+        <v>10.2</v>
       </c>
       <c r="N22">
-        <v>0.03560992379533605</v>
+        <v>0.007967505077331667</v>
       </c>
       <c r="O22">
-        <v>0.2765294771968854</v>
+        <v>0.04746393671475104</v>
       </c>
       <c r="P22">
-        <v>124.3</v>
+        <v>10.2</v>
       </c>
       <c r="Q22">
-        <v>0.03560992379533605</v>
+        <v>0.007967505077331667</v>
       </c>
       <c r="R22">
-        <v>0.2765294771968854</v>
+        <v>0.04746393671475104</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3103,67 +3079,61 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1488.9</v>
+        <v>1039.2</v>
       </c>
       <c r="V22">
-        <v>0.4265455795565233</v>
+        <v>0.8117481643493204</v>
       </c>
       <c r="W22">
-        <v>0.1041594253273085</v>
+        <v>0.09091678300968821</v>
       </c>
       <c r="X22">
-        <v>0.1646684563408742</v>
+        <v>0.1975118437168017</v>
       </c>
       <c r="Y22">
-        <v>-0.06050903101356567</v>
+        <v>-0.1065950607071135</v>
       </c>
       <c r="Z22">
-        <v>0.0475832511110459</v>
+        <v>0.05406681885141745</v>
       </c>
       <c r="AA22">
-        <v>0.0002865025432365974</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.05001889316134128</v>
+        <v>0.04070801638734929</v>
       </c>
       <c r="AC22">
-        <v>-0.04973239061810469</v>
+        <v>-0.04070801638734929</v>
       </c>
       <c r="AD22">
-        <v>19982.2</v>
+        <v>9274.6</v>
       </c>
       <c r="AE22">
-        <v>71.38677005218474</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>20053.58677005218</v>
+        <v>9274.6</v>
       </c>
       <c r="AG22">
-        <v>18564.68677005218</v>
+        <v>8235.4</v>
       </c>
       <c r="AH22">
-        <v>0.8517425964170492</v>
+        <v>0.8787092128699738</v>
       </c>
       <c r="AI22">
-        <v>0.7789922338530391</v>
+        <v>0.7635992392494586</v>
       </c>
       <c r="AJ22">
-        <v>0.8417340914043467</v>
+        <v>0.865463029131111</v>
       </c>
       <c r="AK22">
-        <v>0.7654250991208209</v>
+        <v>0.7414803677059791</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22">
         <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>925.1018518518518</v>
-      </c>
-      <c r="AP22">
-        <v>859.4762393542677</v>
       </c>
     </row>
     <row r="23">
@@ -3174,7 +3144,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bank of Changsha Co., Ltd. (SHSE:601577)</t>
+          <t>Huishang Bank Corporation Limited (SEHK:3698)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3182,6 +3152,12 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D23">
+        <v>0.105</v>
+      </c>
+      <c r="E23">
+        <v>0.115</v>
+      </c>
       <c r="G23">
         <v>0</v>
       </c>
@@ -3189,34 +3165,34 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001700334967903547</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.001380355158893378</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>685.1</v>
+        <v>1436.6</v>
       </c>
       <c r="L23">
-        <v>0.4354818204932621</v>
+        <v>0.5174326465927099</v>
       </c>
       <c r="M23">
-        <v>207.3</v>
+        <v>356.6</v>
       </c>
       <c r="N23">
-        <v>0.04651110612519632</v>
+        <v>0.0895552374494588</v>
       </c>
       <c r="O23">
-        <v>0.302583564443147</v>
+        <v>0.2482249756369205</v>
       </c>
       <c r="P23">
-        <v>207.3</v>
+        <v>356.6</v>
       </c>
       <c r="Q23">
-        <v>0.04651110612519632</v>
+        <v>0.0895552374494588</v>
       </c>
       <c r="R23">
-        <v>0.302583564443147</v>
+        <v>0.2482249756369205</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3225,67 +3201,61 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>2207.5</v>
+        <v>3265.4</v>
       </c>
       <c r="V23">
-        <v>0.4952883105227732</v>
+        <v>0.8200607750069062</v>
       </c>
       <c r="W23">
-        <v>0.1572881511582524</v>
+        <v>0.1488828089375285</v>
       </c>
       <c r="X23">
-        <v>0.1511156012968785</v>
+        <v>0.2822442575685049</v>
       </c>
       <c r="Y23">
-        <v>0.006172549861373972</v>
+        <v>-0.1333614486309764</v>
       </c>
       <c r="Z23">
-        <v>0.07859780883476766</v>
+        <v>0.07807341668213287</v>
       </c>
       <c r="AA23">
-        <v>0.0001084928909027871</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0.04995443289662733</v>
+        <v>0.04080281366713449</v>
       </c>
       <c r="AC23">
-        <v>-0.04984594000572455</v>
+        <v>-0.04080281366713449</v>
       </c>
       <c r="AD23">
-        <v>22470.2</v>
+        <v>44224.7</v>
       </c>
       <c r="AE23">
-        <v>196.1251651424707</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>22666.32516514247</v>
+        <v>44224.7</v>
       </c>
       <c r="AG23">
-        <v>20458.82516514247</v>
+        <v>40959.3</v>
       </c>
       <c r="AH23">
-        <v>0.8356764897790662</v>
+        <v>0.9173992772773852</v>
       </c>
       <c r="AI23">
-        <v>0.823244353049662</v>
+        <v>0.7701096183817575</v>
       </c>
       <c r="AJ23">
-        <v>0.8211177044926694</v>
+        <v>0.9113975594777175</v>
       </c>
       <c r="AK23">
-        <v>0.8078373820670023</v>
+        <v>0.7562494114779796</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23">
         <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>536.2816229116945</v>
-      </c>
-      <c r="AP23">
-        <v>488.2774502420638</v>
       </c>
     </row>
     <row r="24">
@@ -3311,34 +3281,34 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01612959075651374</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0132595496264103</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>648.6</v>
+        <v>578.7</v>
       </c>
       <c r="L24">
-        <v>0.4886243784842549</v>
+        <v>0.4702584105314481</v>
       </c>
       <c r="M24">
-        <v>160.8</v>
+        <v>236.5</v>
       </c>
       <c r="N24">
-        <v>0.06271206271206271</v>
+        <v>0.09968807958185803</v>
       </c>
       <c r="O24">
-        <v>0.2479185938945421</v>
+        <v>0.4086746155175393</v>
       </c>
       <c r="P24">
-        <v>160.8</v>
+        <v>236.5</v>
       </c>
       <c r="Q24">
-        <v>0.06271206271206271</v>
+        <v>0.09968807958185803</v>
       </c>
       <c r="R24">
-        <v>0.2479185938945421</v>
+        <v>0.4086746155175393</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3347,67 +3317,61 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>2355.5</v>
+        <v>2705.7</v>
       </c>
       <c r="V24">
-        <v>0.9186459186459187</v>
+        <v>1.140490642387456</v>
       </c>
       <c r="W24">
-        <v>0.09477744980565217</v>
+        <v>0.08120395706167123</v>
       </c>
       <c r="X24">
-        <v>0.3056822549672384</v>
+        <v>0.3298539831673108</v>
       </c>
       <c r="Y24">
-        <v>-0.2109048051615863</v>
+        <v>-0.2486500261056396</v>
       </c>
       <c r="Z24">
-        <v>0.03536362198826864</v>
+        <v>0.03331690861539627</v>
       </c>
       <c r="AA24">
-        <v>0.0004689057007230626</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.05031885967426805</v>
+        <v>0.04083357452334489</v>
       </c>
       <c r="AC24">
-        <v>-0.04984995397354499</v>
+        <v>-0.04083357452334489</v>
       </c>
       <c r="AD24">
-        <v>32165.2</v>
+        <v>31496.7</v>
       </c>
       <c r="AE24">
-        <v>159.4479061490183</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>32324.64790614902</v>
+        <v>31496.7</v>
       </c>
       <c r="AG24">
-        <v>29969.14790614902</v>
+        <v>28791</v>
       </c>
       <c r="AH24">
-        <v>0.9265063909172824</v>
+        <v>0.9299538517409675</v>
       </c>
       <c r="AI24">
-        <v>0.8170930287121907</v>
+        <v>0.8085676071849401</v>
       </c>
       <c r="AJ24">
-        <v>0.921185243865081</v>
+        <v>0.9238722347369028</v>
       </c>
       <c r="AK24">
-        <v>0.8055129503326323</v>
+        <v>0.7942783050099316</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
         <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>603.4746716697937</v>
-      </c>
-      <c r="AP24">
-        <v>562.272943830188</v>
       </c>
     </row>
     <row r="25">
@@ -3418,7 +3382,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Shengjing Bank Co., Ltd. (SEHK:2066)</t>
+          <t>Bank of Gansu Co., Ltd. (SEHK:2139)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3426,12 +3390,6 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D25">
-        <v>0.0104</v>
-      </c>
-      <c r="E25">
-        <v>0.00891</v>
-      </c>
       <c r="G25">
         <v>0</v>
       </c>
@@ -3439,103 +3397,94 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>-0.0006098918280874052</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>-0.0005425376023584542</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>792.7</v>
+        <v>53.7</v>
       </c>
       <c r="L25">
-        <v>0.5312646605455399</v>
+        <v>0.1391552215599897</v>
       </c>
       <c r="M25">
-        <v>148.4</v>
+        <v>-0</v>
       </c>
       <c r="N25">
-        <v>0.02171940403360361</v>
+        <v>-0</v>
       </c>
       <c r="O25">
-        <v>0.1872082755140659</v>
+        <v>-0</v>
       </c>
       <c r="P25">
-        <v>148.4</v>
+        <v>-0</v>
       </c>
       <c r="Q25">
-        <v>0.02171940403360361</v>
+        <v>-0</v>
       </c>
       <c r="R25">
-        <v>0.1872082755140659</v>
+        <v>-0</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
       <c r="U25">
-        <v>6031.7</v>
+        <v>3410.3</v>
       </c>
       <c r="V25">
-        <v>0.8827825425167578</v>
+        <v>1.154312212293528</v>
       </c>
       <c r="W25">
-        <v>0.09821826832532091</v>
+        <v>0.01543059107496911</v>
       </c>
       <c r="X25">
-        <v>0.1567172754608047</v>
+        <v>0.07968377217395001</v>
       </c>
       <c r="Y25">
-        <v>-0.05849900713548375</v>
+        <v>-0.0642531810989809</v>
       </c>
       <c r="Z25">
-        <v>0.02750331090953235</v>
+        <v>0.06020092976818196</v>
       </c>
       <c r="AA25">
-        <v>-1.49215803577768e-05</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.04998269688401341</v>
+        <v>0.04338077236280094</v>
       </c>
       <c r="AC25">
-        <v>-0.04999761846437119</v>
+        <v>-0.04338077236280094</v>
       </c>
       <c r="AD25">
-        <v>36524.4</v>
+        <v>5538</v>
       </c>
       <c r="AE25">
-        <v>85.55009798344608</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>36609.95009798345</v>
+        <v>5538</v>
       </c>
       <c r="AG25">
-        <v>30578.25009798345</v>
+        <v>2127.7</v>
       </c>
       <c r="AH25">
-        <v>0.8427210192636192</v>
+        <v>0.6521124770382931</v>
       </c>
       <c r="AI25">
-        <v>0.8105365471132325</v>
+        <v>0.5988516063453615</v>
       </c>
       <c r="AJ25">
-        <v>0.8173631451275603</v>
+        <v>0.4186655122882272</v>
       </c>
       <c r="AK25">
-        <v>0.7813360389879215</v>
+        <v>0.3644944667146332</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
         <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>2254.592592592593</v>
-      </c>
-      <c r="AP25">
-        <v>1887.546302344657</v>
       </c>
     </row>
     <row r="26">
@@ -3546,7 +3495,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Qingdao Rural Commercial Bank Corporation (SZSE:002958)</t>
+          <t>Bank of Xi'an Co.,Ltd. (SHSE:600928)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3561,34 +3510,34 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0.003256400799174421</v>
+        <v>0.007532601638805144</v>
       </c>
       <c r="J26">
-        <v>0.002907339855971077</v>
+        <v>0.006573601519349684</v>
       </c>
       <c r="K26">
-        <v>383.6</v>
+        <v>390.9</v>
       </c>
       <c r="L26">
-        <v>0.4846493998736576</v>
+        <v>0.5457972633342641</v>
       </c>
       <c r="M26">
-        <v>115.4</v>
+        <v>148</v>
       </c>
       <c r="N26">
-        <v>0.02235437692501404</v>
+        <v>0.03910068426197458</v>
       </c>
       <c r="O26">
-        <v>0.3008342022940563</v>
+        <v>0.3786134561268867</v>
       </c>
       <c r="P26">
-        <v>115.4</v>
+        <v>148</v>
       </c>
       <c r="Q26">
-        <v>0.02235437692501404</v>
+        <v>0.03910068426197458</v>
       </c>
       <c r="R26">
-        <v>0.3008342022940563</v>
+        <v>0.3786134561268867</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3597,55 +3546,55 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>1879.1</v>
+        <v>2043.1</v>
       </c>
       <c r="V26">
-        <v>0.3640044166359955</v>
+        <v>0.5397743784840559</v>
       </c>
       <c r="W26">
-        <v>0.133388970025732</v>
+        <v>0.1206742197388325</v>
       </c>
       <c r="X26">
-        <v>0.09519496396040229</v>
+        <v>0.09739680854106882</v>
       </c>
       <c r="Y26">
-        <v>0.03819400606532967</v>
+        <v>0.02327741119776364</v>
       </c>
       <c r="Z26">
-        <v>0.09627182002238048</v>
+        <v>0.06082209655942727</v>
       </c>
       <c r="AA26">
-        <v>0.0002798948993579411</v>
+        <v>0.0003998202263530844</v>
       </c>
       <c r="AB26">
-        <v>0.05142414963508907</v>
+        <v>0.04394525862605896</v>
       </c>
       <c r="AC26">
-        <v>-0.05114425473573113</v>
+        <v>-0.04354543839970587</v>
       </c>
       <c r="AD26">
-        <v>12182.4</v>
+        <v>10085.8</v>
       </c>
       <c r="AE26">
-        <v>23.91279383726723</v>
+        <v>65.02575353143877</v>
       </c>
       <c r="AF26">
-        <v>12206.31279383727</v>
+        <v>10150.82575353144</v>
       </c>
       <c r="AG26">
-        <v>10327.21279383727</v>
+        <v>8107.725753531438</v>
       </c>
       <c r="AH26">
-        <v>0.7027799478705814</v>
+        <v>0.7283926402204866</v>
       </c>
       <c r="AI26">
-        <v>0.7797611341391097</v>
+        <v>0.7355710410930156</v>
       </c>
       <c r="AJ26">
-        <v>0.6667228938244011</v>
+        <v>0.6817324933163122</v>
       </c>
       <c r="AK26">
-        <v>0.7497171067513581</v>
+        <v>0.6896186031417615</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -3654,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>1655.217391304348</v>
+        <v>548.1413043478261</v>
       </c>
       <c r="AP26">
-        <v>1403.15391220615</v>
+        <v>440.6372692136651</v>
       </c>
     </row>
     <row r="27">
@@ -3683,34 +3632,34 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0.003750294494594935</v>
+        <v>0.003548884643591307</v>
       </c>
       <c r="J27">
-        <v>0.003170967591169986</v>
+        <v>0.003075506413717834</v>
       </c>
       <c r="K27">
-        <v>196.4</v>
+        <v>211.7</v>
       </c>
       <c r="L27">
-        <v>0.4493250972317547</v>
+        <v>0.4842177493138152</v>
       </c>
       <c r="M27">
-        <v>444.8</v>
+        <v>223.5</v>
       </c>
       <c r="N27">
-        <v>0.1505347231623122</v>
+        <v>0.09467530817130512</v>
       </c>
       <c r="O27">
-        <v>2.264765784114053</v>
+        <v>1.055739253660841</v>
       </c>
       <c r="P27">
-        <v>444.8</v>
+        <v>223.5</v>
       </c>
       <c r="Q27">
-        <v>0.1505347231623122</v>
+        <v>0.09467530817130512</v>
       </c>
       <c r="R27">
-        <v>2.264765784114053</v>
+        <v>1.055739253660841</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3719,55 +3668,55 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>1991.1</v>
+        <v>2415.4</v>
       </c>
       <c r="V27">
-        <v>0.6738527142276972</v>
+        <v>1.023171093319778</v>
       </c>
       <c r="W27">
-        <v>0.1255674189629819</v>
+        <v>0.1131238644864807</v>
       </c>
       <c r="X27">
-        <v>0.09518729913889797</v>
+        <v>0.1014928605640612</v>
       </c>
       <c r="Y27">
-        <v>0.03038011982408396</v>
+        <v>0.01163100392241952</v>
       </c>
       <c r="Z27">
-        <v>0.06010929634671845</v>
+        <v>0.06364464150630457</v>
       </c>
       <c r="AA27">
-        <v>0.0001906046306434766</v>
+        <v>0.000195739503151412</v>
       </c>
       <c r="AB27">
-        <v>0.05142392351826893</v>
+        <v>0.04404225332034495</v>
       </c>
       <c r="AC27">
-        <v>-0.05123331888762545</v>
+        <v>-0.04384651381719354</v>
       </c>
       <c r="AD27">
-        <v>6962.3</v>
+        <v>6744.8</v>
       </c>
       <c r="AE27">
-        <v>23.25373138206277</v>
+        <v>26.79213816910941</v>
       </c>
       <c r="AF27">
-        <v>6985.553731382063</v>
+        <v>6771.59213816911</v>
       </c>
       <c r="AG27">
-        <v>4994.453731382064</v>
+        <v>4356.19213816911</v>
       </c>
       <c r="AH27">
-        <v>0.7027469967520786</v>
+        <v>0.741499728186172</v>
       </c>
       <c r="AI27">
-        <v>0.7887083915354289</v>
+        <v>0.7590796908265259</v>
       </c>
       <c r="AJ27">
-        <v>0.6282921517104126</v>
+        <v>0.6485428154212582</v>
       </c>
       <c r="AK27">
-        <v>0.7274337506716305</v>
+        <v>0.669627909532157</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -3776,10 +3725,10 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>1106.883942766296</v>
+        <v>976.0926193921853</v>
       </c>
       <c r="AP27">
-        <v>794.030799901759</v>
+        <v>630.4185438739667</v>
       </c>
     </row>
     <row r="28">
@@ -3790,7 +3739,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jinshang Bank Co., Ltd. (SEHK:2558)</t>
+          <t>Qingdao Rural Commercial Bank Corporation (SZSE:002958)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3805,91 +3754,91 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0.01426354029629343</v>
+        <v>0.002635965288819057</v>
       </c>
       <c r="J28">
-        <v>0.01346334168219563</v>
+        <v>0.002484898939005681</v>
       </c>
       <c r="K28">
-        <v>201.3</v>
+        <v>433</v>
       </c>
       <c r="L28">
-        <v>0.4203382752140322</v>
+        <v>0.4862982929020665</v>
       </c>
       <c r="M28">
-        <v>57.21</v>
+        <v>122</v>
       </c>
       <c r="N28">
-        <v>0.04892252437147255</v>
+        <v>0.02816641270720783</v>
       </c>
       <c r="O28">
-        <v>0.2842026825633383</v>
+        <v>0.2817551963048499</v>
       </c>
       <c r="P28">
-        <v>55.6</v>
+        <v>122</v>
       </c>
       <c r="Q28">
-        <v>0.04754574995724303</v>
+        <v>0.02816641270720783</v>
       </c>
       <c r="R28">
-        <v>0.2762046696472926</v>
+        <v>0.2817551963048499</v>
       </c>
       <c r="S28">
-        <v>1.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>0.02814193322845655</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>1551.3</v>
+        <v>2690.5</v>
       </c>
       <c r="V28">
-        <v>1.326577732170344</v>
+        <v>0.6211617490880548</v>
       </c>
       <c r="W28">
-        <v>0.08413793103448276</v>
+        <v>0.1300144126831612</v>
       </c>
       <c r="X28">
-        <v>0.1901581607703828</v>
+        <v>0.1129025996584188</v>
       </c>
       <c r="Y28">
-        <v>-0.1060202297359</v>
+        <v>0.01711181302474236</v>
       </c>
       <c r="Z28">
-        <v>0.07889821318812867</v>
+        <v>0.06518270745368208</v>
       </c>
       <c r="AA28">
-        <v>0.001062233602266489</v>
+        <v>0.0001619724405931723</v>
       </c>
       <c r="AB28">
-        <v>0.05260438053681943</v>
+        <v>0.04426892774172025</v>
       </c>
       <c r="AC28">
-        <v>-0.05154214693455294</v>
+        <v>-0.04410695530112708</v>
       </c>
       <c r="AD28">
-        <v>8080.3</v>
+        <v>14650.5</v>
       </c>
       <c r="AE28">
-        <v>88.34595276052538</v>
+        <v>26.36468253417756</v>
       </c>
       <c r="AF28">
-        <v>8168.645952760526</v>
+        <v>14676.86468253418</v>
       </c>
       <c r="AG28">
-        <v>6617.345952760526</v>
+        <v>11986.36468253418</v>
       </c>
       <c r="AH28">
-        <v>0.874770374239345</v>
+        <v>0.7721306982862078</v>
       </c>
       <c r="AI28">
-        <v>0.7753267769920189</v>
+        <v>0.7861048743340373</v>
       </c>
       <c r="AJ28">
-        <v>0.8498217346380191</v>
+        <v>0.7345592313488782</v>
       </c>
       <c r="AK28">
-        <v>0.736533558947762</v>
+        <v>0.750091751129479</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -3898,10 +3847,10 @@
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>329.8081632653061</v>
+        <v>1922.637795275591</v>
       </c>
       <c r="AP28">
-        <v>270.095753173899</v>
+        <v>1573.013737865378</v>
       </c>
     </row>
     <row r="29">
@@ -3912,7 +3861,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bank of Jiujiang Co., Ltd. (SEHK:6190)</t>
+          <t>Bank of Guizhou Co., Ltd. (SEHK:6199)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3927,34 +3876,34 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0.002075504382918164</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.001696566140624486</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>260</v>
+        <v>524.2</v>
       </c>
       <c r="L29">
-        <v>0.3852422581123129</v>
+        <v>0.4690408017179671</v>
       </c>
       <c r="M29">
-        <v>31.3</v>
+        <v>145.88</v>
       </c>
       <c r="N29">
-        <v>0.009377153299979029</v>
+        <v>0.02819373043175757</v>
       </c>
       <c r="O29">
-        <v>0.1203846153846154</v>
+        <v>0.2782907287294925</v>
       </c>
       <c r="P29">
-        <v>31.3</v>
+        <v>145.88</v>
       </c>
       <c r="Q29">
-        <v>0.009377153299979029</v>
+        <v>0.02819373043175757</v>
       </c>
       <c r="R29">
-        <v>0.1203846153846154</v>
+        <v>0.2782907287294925</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3963,67 +3912,61 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>1069.7</v>
+        <v>4784</v>
       </c>
       <c r="V29">
-        <v>0.320470954791935</v>
+        <v>0.9245873758262148</v>
       </c>
       <c r="W29">
-        <v>0.09468662369350668</v>
+        <v>0.1317317116075692</v>
       </c>
       <c r="X29">
-        <v>0.1118684745353948</v>
+        <v>0.09099620193083226</v>
       </c>
       <c r="Y29">
-        <v>-0.01718185084188809</v>
+        <v>0.04073550967673691</v>
       </c>
       <c r="Z29">
-        <v>0.07182999555148604</v>
+        <v>0.07125960404246501</v>
       </c>
       <c r="AA29">
-        <v>0.0001218643383338587</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>0.05182041765254983</v>
+        <v>0.04598254360618816</v>
       </c>
       <c r="AC29">
-        <v>-0.05169855331421597</v>
+        <v>-0.04598254360618816</v>
       </c>
       <c r="AD29">
-        <v>10550.6</v>
+        <v>12366.7</v>
       </c>
       <c r="AE29">
-        <v>49.99621045984266</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>10600.59621045984</v>
+        <v>12366.7</v>
       </c>
       <c r="AG29">
-        <v>9530.896210459843</v>
+        <v>7582.700000000001</v>
       </c>
       <c r="AH29">
-        <v>0.7605265338813849</v>
+        <v>0.7050208370152045</v>
       </c>
       <c r="AI29">
-        <v>0.7485188670467056</v>
+        <v>0.7162209120498536</v>
       </c>
       <c r="AJ29">
-        <v>0.7406206497164877</v>
+        <v>0.5943998933910276</v>
       </c>
       <c r="AK29">
-        <v>0.7279718744568219</v>
+        <v>0.6074615865284476</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29">
         <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>925.4912280701755</v>
-      </c>
-      <c r="AP29">
-        <v>836.0435272333195</v>
       </c>
     </row>
     <row r="30">
@@ -4034,7 +3977,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bank of Qingdao Co., Ltd. (SEHK:3866)</t>
+          <t>Xiamen Bank Co., Ltd. (SHSE:601187)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4049,34 +3992,34 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0.003600255805639631</v>
+        <v>0.006834783803049835</v>
       </c>
       <c r="J30">
-        <v>0.002955322588579671</v>
+        <v>0.006834783803049835</v>
       </c>
       <c r="K30">
-        <v>310</v>
+        <v>265.1</v>
       </c>
       <c r="L30">
-        <v>0.3894472361809045</v>
+        <v>0.5469362492263257</v>
       </c>
       <c r="M30">
-        <v>126.2716</v>
+        <v>39.58649999999999</v>
       </c>
       <c r="N30">
-        <v>0.03390842933483713</v>
+        <v>0.007418759370314842</v>
       </c>
       <c r="O30">
-        <v>0.4073277419354838</v>
+        <v>0.1493266691814409</v>
       </c>
       <c r="P30">
-        <v>126.2716</v>
+        <v>39.58649999999999</v>
       </c>
       <c r="Q30">
-        <v>0.03390842933483713</v>
+        <v>0.007418759370314842</v>
       </c>
       <c r="R30">
-        <v>0.4073277419354838</v>
+        <v>0.1493266691814409</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -4085,55 +4028,55 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>1575.9</v>
+        <v>3772.7</v>
       </c>
       <c r="V30">
-        <v>0.4231853701764279</v>
+        <v>0.707027736131934</v>
       </c>
       <c r="W30">
-        <v>0.1118971989604389</v>
+        <v>0.1262741735734019</v>
       </c>
       <c r="X30">
-        <v>0.1265427752164131</v>
+        <v>0.09786527786780758</v>
       </c>
       <c r="Y30">
-        <v>-0.01464557625597418</v>
+        <v>0.02840889570559435</v>
       </c>
       <c r="Z30">
-        <v>0.05754159610714287</v>
+        <v>0.03675802584015498</v>
       </c>
       <c r="AA30">
-        <v>0.0001700539787583674</v>
+        <v>0.0002512331596443786</v>
       </c>
       <c r="AB30">
-        <v>0.05206038068780622</v>
+        <v>0.04624526760984386</v>
       </c>
       <c r="AC30">
-        <v>-0.05189032670904785</v>
+        <v>-0.04599403445019948</v>
       </c>
       <c r="AD30">
-        <v>14420.8</v>
+        <v>14364</v>
       </c>
       <c r="AE30">
-        <v>64.67098189355427</v>
+        <v>59.93590145330873</v>
       </c>
       <c r="AF30">
-        <v>14485.47098189355</v>
+        <v>14423.93590145331</v>
       </c>
       <c r="AG30">
-        <v>12909.57098189355</v>
+        <v>10651.23590145331</v>
       </c>
       <c r="AH30">
-        <v>0.7954954070789787</v>
+        <v>0.7299586381954029</v>
       </c>
       <c r="AI30">
-        <v>0.7745673296315129</v>
+        <v>0.8583154369667015</v>
       </c>
       <c r="AJ30">
-        <v>0.7761200891832095</v>
+        <v>0.6662337359070973</v>
       </c>
       <c r="AK30">
-        <v>0.7538228289045369</v>
+        <v>0.8172991942438305</v>
       </c>
       <c r="AL30">
         <v>0</v>
@@ -4142,10 +4085,10 @@
         <v>0</v>
       </c>
       <c r="AN30">
-        <v>912.7088607594936</v>
+        <v>938.8235294117646</v>
       </c>
       <c r="AP30">
-        <v>817.0614545502249</v>
+        <v>696.1592092453144</v>
       </c>
     </row>
     <row r="31">
@@ -4156,7 +4099,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Jiangxi Bank Co., Ltd. (SEHK:1916)</t>
+          <t>Luzhou Bank Co., Ltd. (SEHK:1983)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4171,34 +4114,34 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0.004685760201035409</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.003654170579788471</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>407.9</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="L31">
-        <v>0.3875534441805226</v>
+        <v>0.3255723709740008</v>
       </c>
       <c r="M31">
-        <v>0.014</v>
+        <v>40.7664</v>
       </c>
       <c r="N31">
-        <v>4.309814062307598e-06</v>
+        <v>0.04444657653728739</v>
       </c>
       <c r="O31">
-        <v>3.432213777886737e-05</v>
+        <v>0.4858927294398092</v>
       </c>
       <c r="P31">
-        <v>0.014</v>
+        <v>40.7664</v>
       </c>
       <c r="Q31">
-        <v>4.309814062307598e-06</v>
+        <v>0.04444657653728739</v>
       </c>
       <c r="R31">
-        <v>3.432213777886737e-05</v>
+        <v>0.4858927294398092</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4207,67 +4150,61 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>1344.2</v>
+        <v>513.8</v>
       </c>
       <c r="V31">
-        <v>0.413803718753848</v>
+        <v>0.5601831661578717</v>
       </c>
       <c r="W31">
-        <v>0.09037132222616093</v>
+        <v>0.08552497451580021</v>
       </c>
       <c r="X31">
-        <v>0.1354866233283415</v>
+        <v>0.1118161965448219</v>
       </c>
       <c r="Y31">
-        <v>-0.04511530110218054</v>
+        <v>-0.02629122202902166</v>
       </c>
       <c r="Z31">
-        <v>0.07553064573501196</v>
+        <v>0.0772181104485662</v>
       </c>
       <c r="AA31">
-        <v>0.0002760018635173063</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>0.05217507160706514</v>
+        <v>0.04666216254158541</v>
       </c>
       <c r="AC31">
-        <v>-0.05189906974354783</v>
+        <v>-0.04666216254158541</v>
       </c>
       <c r="AD31">
-        <v>13956.7</v>
+        <v>3062.5</v>
       </c>
       <c r="AE31">
-        <v>92.84118694205117</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>14049.54118694205</v>
+        <v>3062.5</v>
       </c>
       <c r="AG31">
-        <v>12705.34118694205</v>
+        <v>2548.7</v>
       </c>
       <c r="AH31">
-        <v>0.8122088655005854</v>
+        <v>0.7695303666105485</v>
       </c>
       <c r="AI31">
-        <v>0.7362009067941376</v>
+        <v>0.7115143348357419</v>
       </c>
       <c r="AJ31">
-        <v>0.7963863170440062</v>
+        <v>0.7353645517758736</v>
       </c>
       <c r="AK31">
-        <v>0.7162118474129177</v>
+        <v>0.6724092444069227</v>
       </c>
       <c r="AL31">
         <v>0</v>
       </c>
       <c r="AM31">
         <v>0</v>
-      </c>
-      <c r="AN31">
-        <v>593.9021276595745</v>
-      </c>
-      <c r="AP31">
-        <v>540.6528164656191</v>
       </c>
     </row>
     <row r="32">
@@ -4278,7 +4215,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Zhongyuan Bank Co., Ltd. (SEHK:1216)</t>
+          <t>Jiangxi Bank Co., Ltd. (SEHK:1916)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4293,34 +4230,34 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0.004594061199598569</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.003777382522198569</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>402.4</v>
+        <v>235.6</v>
       </c>
       <c r="L32">
-        <v>0.2701577710641155</v>
+        <v>0.2898622047244094</v>
       </c>
       <c r="M32">
-        <v>100.375</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="N32">
-        <v>0.03140742826746769</v>
+        <v>0.02642369020501139</v>
       </c>
       <c r="O32">
-        <v>0.2494408548707754</v>
+        <v>0.2954159592529711</v>
       </c>
       <c r="P32">
-        <v>100.375</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="Q32">
-        <v>0.03140742826746769</v>
+        <v>0.02642369020501139</v>
       </c>
       <c r="R32">
-        <v>0.2494408548707754</v>
+        <v>0.2954159592529711</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4329,67 +4266,61 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>7238.5</v>
+        <v>1405.2</v>
       </c>
       <c r="V32">
-        <v>2.264933195656935</v>
+        <v>0.5334851936218679</v>
       </c>
       <c r="W32">
-        <v>0.06177179436010008</v>
+        <v>0.04762578584568113</v>
       </c>
       <c r="X32">
-        <v>0.1833532179664085</v>
+        <v>0.151907434525054</v>
       </c>
       <c r="Y32">
-        <v>-0.1215814236063084</v>
+        <v>-0.1042816486793729</v>
       </c>
       <c r="Z32">
-        <v>0.09129699249640885</v>
+        <v>0.04628859756028111</v>
       </c>
       <c r="AA32">
-        <v>0.0003448636637852287</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>0.0525672049590839</v>
+        <v>0.0473816566997764</v>
       </c>
       <c r="AC32">
-        <v>-0.05222234129529867</v>
+        <v>-0.0473816566997764</v>
       </c>
       <c r="AD32">
-        <v>21126.9</v>
+        <v>13607.7</v>
       </c>
       <c r="AE32">
-        <v>139.2857292159897</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>21266.18572921599</v>
+        <v>13607.7</v>
       </c>
       <c r="AG32">
-        <v>14027.68572921599</v>
+        <v>12202.5</v>
       </c>
       <c r="AH32">
-        <v>0.8693529229119241</v>
+        <v>0.8378248582352833</v>
       </c>
       <c r="AI32">
-        <v>0.726346683200617</v>
+        <v>0.7295180399935668</v>
       </c>
       <c r="AJ32">
-        <v>0.8144463034443016</v>
+        <v>0.8224648670508543</v>
       </c>
       <c r="AK32">
-        <v>0.6364710574577347</v>
+        <v>0.7074815338767844</v>
       </c>
       <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32">
         <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>608.8443804034582</v>
-      </c>
-      <c r="AP32">
-        <v>404.2560728880689</v>
       </c>
     </row>
     <row r="33">
@@ -4400,7 +4331,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Guangzhou Rural Commercial Bank Co., Ltd. (SEHK:1551)</t>
+          <t>Bank of Qingdao Co., Ltd. (SEHK:3866)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4408,6 +4339,12 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D33">
+        <v>0.08529999999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.08650000000000001</v>
+      </c>
       <c r="G33">
         <v>0</v>
       </c>
@@ -4415,34 +4352,34 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0.005997710440729418</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0.004781091377877341</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>989.6</v>
+        <v>345.5</v>
       </c>
       <c r="L33">
-        <v>0.4562260845511964</v>
+        <v>0.3780087527352298</v>
       </c>
       <c r="M33">
-        <v>571.3</v>
+        <v>130.7813</v>
       </c>
       <c r="N33">
-        <v>0.124298333405857</v>
+        <v>0.03729469301622608</v>
       </c>
       <c r="O33">
-        <v>0.5773039611964429</v>
+        <v>0.3785276410998553</v>
       </c>
       <c r="P33">
-        <v>571.3</v>
+        <v>130.7813</v>
       </c>
       <c r="Q33">
-        <v>0.124298333405857</v>
+        <v>0.03729469301622608</v>
       </c>
       <c r="R33">
-        <v>0.5773039611964429</v>
+        <v>0.3785276410998553</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -4451,67 +4388,61 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>6717.3</v>
+        <v>4317.9</v>
       </c>
       <c r="V33">
-        <v>1.46148992646099</v>
+        <v>1.231328599538027</v>
       </c>
       <c r="W33">
-        <v>0.1349442277797475</v>
+        <v>0.1136438392211039</v>
       </c>
       <c r="X33">
-        <v>0.1298271995664333</v>
+        <v>0.1595107680924641</v>
       </c>
       <c r="Y33">
-        <v>0.005117028213314112</v>
+        <v>-0.04586692887136024</v>
       </c>
       <c r="Z33">
-        <v>0.09644794533372963</v>
+        <v>0.05381567248982861</v>
       </c>
       <c r="AA33">
-        <v>0.0004611264398490798</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.05282656616150338</v>
+        <v>0.04747256567895752</v>
       </c>
       <c r="AC33">
-        <v>-0.0523654397216543</v>
+        <v>-0.04747256567895752</v>
       </c>
       <c r="AD33">
-        <v>18483.2</v>
+        <v>19331.4</v>
       </c>
       <c r="AE33">
-        <v>129.9518314150691</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>18613.15183141507</v>
+        <v>19331.4</v>
       </c>
       <c r="AG33">
-        <v>11895.85183141507</v>
+        <v>15013.5</v>
       </c>
       <c r="AH33">
-        <v>0.801967757075456</v>
+        <v>0.8464539519487173</v>
       </c>
       <c r="AI33">
-        <v>0.6472619696596362</v>
+        <v>0.8117389186556259</v>
       </c>
       <c r="AJ33">
-        <v>0.7213081763880419</v>
+        <v>0.8106553924903619</v>
       </c>
       <c r="AK33">
-        <v>0.5397526182778605</v>
+        <v>0.7700454944119322</v>
       </c>
       <c r="AL33">
         <v>0</v>
       </c>
       <c r="AM33">
         <v>0</v>
-      </c>
-      <c r="AN33">
-        <v>473.9282051282051</v>
-      </c>
-      <c r="AP33">
-        <v>305.0218418311557</v>
       </c>
     </row>
     <row r="34">
@@ -4530,23 +4461,29 @@
           <t>Banks (Regional)</t>
         </is>
       </c>
+      <c r="D34">
+        <v>-0.09789999999999999</v>
+      </c>
+      <c r="E34">
+        <v>-0.299</v>
+      </c>
       <c r="G34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>-0.00244740819601182</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>-0.00244740819601182</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>-1430.2</v>
+        <v>63.2</v>
       </c>
       <c r="L34">
-        <v>1.097199846566935</v>
+        <v>0.1251980982567353</v>
       </c>
       <c r="M34">
         <v>-0</v>
@@ -4555,7 +4492,7 @@
         <v>-0</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P34">
         <v>-0</v>
@@ -4564,73 +4501,67 @@
         <v>-0</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="U34">
-        <v>1723.4</v>
+        <v>4494.6</v>
       </c>
       <c r="V34">
-        <v>0.7098607793063679</v>
+        <v>1.112690003465861</v>
       </c>
       <c r="W34">
-        <v>-0.1940359255440386</v>
+        <v>0.009498331780336048</v>
       </c>
       <c r="X34">
-        <v>0.2507388041533876</v>
+        <v>0.1676915284900262</v>
       </c>
       <c r="Y34">
-        <v>-0.4447747296974262</v>
+        <v>-0.1581931967096902</v>
       </c>
       <c r="Z34">
-        <v>-0.04498046168248258</v>
+        <v>0.01658878351111725</v>
       </c>
       <c r="AA34">
-        <v>0.0001100855505821035</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>0.05283607890972422</v>
+        <v>0.0475601594738336</v>
       </c>
       <c r="AC34">
-        <v>-0.05272599335914212</v>
+        <v>-0.0475601594738336</v>
       </c>
       <c r="AD34">
-        <v>24058.6</v>
+        <v>23774.1</v>
       </c>
       <c r="AE34">
-        <v>57.04901708249296</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>24115.64901708249</v>
+        <v>23774.1</v>
       </c>
       <c r="AG34">
-        <v>22392.24901708249</v>
+        <v>19279.5</v>
       </c>
       <c r="AH34">
-        <v>0.9085348705649539</v>
+        <v>0.8547683678789076</v>
       </c>
       <c r="AI34">
-        <v>0.7350080155176459</v>
+        <v>0.7370191368721924</v>
       </c>
       <c r="AJ34">
-        <v>0.9021839159814287</v>
+        <v>0.8267757055435719</v>
       </c>
       <c r="AK34">
-        <v>0.7203172334457045</v>
+        <v>0.6944439441692931</v>
       </c>
       <c r="AL34">
         <v>0</v>
       </c>
       <c r="AM34">
         <v>0</v>
-      </c>
-      <c r="AN34">
-        <v>1647.849315068493</v>
-      </c>
-      <c r="AP34">
-        <v>1533.71568610154</v>
       </c>
     </row>
     <row r="35">
@@ -4641,124 +4572,234 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>Zhongyuan Bank Co., Ltd. (SEHK:1216)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Banks (Regional)</t>
+        </is>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>441.8</v>
+      </c>
+      <c r="L35">
+        <v>0.2737637873342422</v>
+      </c>
+      <c r="M35">
+        <v>140.525</v>
+      </c>
+      <c r="N35">
+        <v>0.05269226442686265</v>
+      </c>
+      <c r="O35">
+        <v>0.3180737890448166</v>
+      </c>
+      <c r="P35">
+        <v>140.525</v>
+      </c>
+      <c r="Q35">
+        <v>0.05269226442686265</v>
+      </c>
+      <c r="R35">
+        <v>0.3180737890448166</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>8684.299999999999</v>
+      </c>
+      <c r="V35">
+        <v>3.256327571337508</v>
+      </c>
+      <c r="W35">
+        <v>0.06742773419614786</v>
+      </c>
+      <c r="X35">
+        <v>0.2745506004986443</v>
+      </c>
+      <c r="Y35">
+        <v>-0.2071228663024965</v>
+      </c>
+      <c r="Z35">
+        <v>0.07406761458036919</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0.04819403039831463</v>
+      </c>
+      <c r="AC35">
+        <v>-0.04819403039831463</v>
+      </c>
+      <c r="AD35">
+        <v>28684.6</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>28684.6</v>
+      </c>
+      <c r="AG35">
+        <v>20000.3</v>
+      </c>
+      <c r="AH35">
+        <v>0.9149354895300065</v>
+      </c>
+      <c r="AI35">
+        <v>0.7697051010277188</v>
+      </c>
+      <c r="AJ35">
+        <v>0.8823454154019905</v>
+      </c>
+      <c r="AK35">
+        <v>0.6997344547575982</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>Bank of Chongqing Co., Ltd. (SEHK:1963)</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Banks (Regional)</t>
         </is>
       </c>
-      <c r="D35">
-        <v>0.0462</v>
-      </c>
-      <c r="E35">
-        <v>0.0761</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0.002153655732332952</v>
-      </c>
-      <c r="J35">
-        <v>0.001691995933056837</v>
-      </c>
-      <c r="K35">
-        <v>581.9</v>
-      </c>
-      <c r="L35">
-        <v>0.5282316630355847</v>
-      </c>
-      <c r="M35">
-        <v>17.8</v>
-      </c>
-      <c r="N35">
-        <v>0.009494346063580116</v>
-      </c>
-      <c r="O35">
-        <v>0.03058944835882454</v>
-      </c>
-      <c r="P35">
-        <v>17.8</v>
-      </c>
-      <c r="Q35">
-        <v>0.009494346063580116</v>
-      </c>
-      <c r="R35">
-        <v>0.03058944835882454</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>1906.5</v>
-      </c>
-      <c r="V35">
-        <v>1.016908470236825</v>
-      </c>
-      <c r="W35">
-        <v>0.1448377140581442</v>
-      </c>
-      <c r="X35">
-        <v>0.2798259963650424</v>
-      </c>
-      <c r="Y35">
-        <v>-0.1349882823068982</v>
-      </c>
-      <c r="Z35">
-        <v>0.04615396669361582</v>
-      </c>
-      <c r="AA35">
-        <v>7.809232394003869e-05</v>
-      </c>
-      <c r="AB35">
-        <v>0.05373513542669955</v>
-      </c>
-      <c r="AC35">
-        <v>-0.05365704310275952</v>
-      </c>
-      <c r="AD35">
-        <v>21257.4</v>
-      </c>
-      <c r="AE35">
-        <v>18.7376642263101</v>
-      </c>
-      <c r="AF35">
-        <v>21276.13766422631</v>
-      </c>
-      <c r="AG35">
-        <v>19369.63766422631</v>
-      </c>
-      <c r="AH35">
-        <v>0.9190183988574678</v>
-      </c>
-      <c r="AI35">
-        <v>0.7985148055810168</v>
-      </c>
-      <c r="AJ35">
-        <v>0.9117510178602189</v>
-      </c>
-      <c r="AK35">
-        <v>0.7829868976853759</v>
-      </c>
-      <c r="AL35">
-        <v>0</v>
-      </c>
-      <c r="AM35">
-        <v>0</v>
-      </c>
-      <c r="AN35">
-        <v>3473.43137254902</v>
-      </c>
-      <c r="AP35">
-        <v>3164.973474546783</v>
+      <c r="D36">
+        <v>0.0279</v>
+      </c>
+      <c r="E36">
+        <v>0.073</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>644.8</v>
+      </c>
+      <c r="L36">
+        <v>0.5203776934872084</v>
+      </c>
+      <c r="M36">
+        <v>43.1</v>
+      </c>
+      <c r="N36">
+        <v>0.02203363836204693</v>
+      </c>
+      <c r="O36">
+        <v>0.06684243176178661</v>
+      </c>
+      <c r="P36">
+        <v>43.1</v>
+      </c>
+      <c r="Q36">
+        <v>0.02203363836204693</v>
+      </c>
+      <c r="R36">
+        <v>0.06684243176178661</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>1888.6</v>
+      </c>
+      <c r="V36">
+        <v>0.9654925617299729</v>
+      </c>
+      <c r="W36">
+        <v>0.1448175182481752</v>
+      </c>
+      <c r="X36">
+        <v>0.2983023960012798</v>
+      </c>
+      <c r="Y36">
+        <v>-0.1534848777531046</v>
+      </c>
+      <c r="Z36">
+        <v>0.05059574850348302</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0.04856005881969391</v>
+      </c>
+      <c r="AC36">
+        <v>-0.04856005881969391</v>
+      </c>
+      <c r="AD36">
+        <v>23156.9</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>23156.9</v>
+      </c>
+      <c r="AG36">
+        <v>21268.3</v>
+      </c>
+      <c r="AH36">
+        <v>0.9221080715167443</v>
+      </c>
+      <c r="AI36">
+        <v>0.7900520630761567</v>
+      </c>
+      <c r="AJ36">
+        <v>0.9157739274211606</v>
+      </c>
+      <c r="AK36">
+        <v>0.7755925898913282</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
